--- a/Community_Solar_Calculations.xlsx
+++ b/Community_Solar_Calculations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chels\OneDrive\Documents\Climate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chels\Documents\Climate\Community-Solar-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F0285-8FF4-457B-A313-E70786A1A103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530661D-B531-4F71-A2B9-086487886660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3AAAE2C-EE30-4987-B745-1AE709F25640}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{E3AAAE2C-EE30-4987-B745-1AE709F25640}"/>
   </bookViews>
   <sheets>
     <sheet name="Savings estimate" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
   <si>
     <t>a</t>
   </si>
@@ -170,9 +170,6 @@
     <t>Square Difference</t>
   </si>
   <si>
-    <t>Nexamp data</t>
-  </si>
-  <si>
     <t>Year</t>
   </si>
   <si>
@@ -282,9 +279,6 @@
   </si>
   <si>
     <t>Utility bill ($)</t>
-  </si>
-  <si>
-    <t>Utility data</t>
   </si>
 </sst>
 </file>
@@ -294,7 +288,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,32 +317,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE69138"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -363,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -384,12 +359,6 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1913,7 +1882,7 @@
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1939,96 +1908,143 @@
     <col min="21" max="21" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="10" t="s">
+    <row r="1" spans="1:21" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="1" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>2024</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2">
         <v>30</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>43</v>
+      <c r="D2" s="2">
+        <v>175.77</v>
+      </c>
+      <c r="E2" s="2">
+        <v>40.56</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1298</v>
+      </c>
+      <c r="G2" s="2">
+        <v>180</v>
+      </c>
+      <c r="H2" s="2">
+        <f>MAX(F2-G2, 0)</f>
+        <v>1118</v>
+      </c>
+      <c r="I2" s="7">
+        <f>MIN(G2/F2, 1)</f>
+        <v>0.13867488443759629</v>
+      </c>
+      <c r="J2" s="7">
+        <f>H2/F2</f>
+        <v>0.86132511556240365</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="L2" s="7">
+        <f>G2*K2</f>
+        <v>14.4</v>
+      </c>
+      <c r="M2" s="2">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N2" s="2">
+        <v>79.88</v>
+      </c>
+      <c r="O2" s="2">
+        <v>6.08</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>M2/N2</f>
+        <v>6.0841261892839268E-2</v>
+      </c>
+      <c r="R2" s="7">
+        <f>L2-M2</f>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="S2" s="7">
+        <f>R2</f>
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="T2" s="8">
+        <f>N2*$U$21</f>
+        <v>67.578479999999999</v>
+      </c>
+      <c r="U2" s="4">
+        <f>T2/$U$22</f>
+        <v>0.50696534133533377</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
@@ -2039,70 +2055,70 @@
         <v>44</v>
       </c>
       <c r="C3" s="2">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2">
-        <v>175.77</v>
+        <v>121.41</v>
       </c>
       <c r="E3" s="2">
-        <v>40.56</v>
+        <v>38.65</v>
       </c>
       <c r="F3" s="2">
-        <v>1298</v>
+        <v>1198</v>
       </c>
       <c r="G3" s="2">
-        <v>180</v>
+        <v>303</v>
       </c>
       <c r="H3" s="2">
-        <f>MAX(F3-G3, 0)</f>
-        <v>1118</v>
+        <f t="shared" ref="H3:H18" si="0">MAX(F3-G3, 0)</f>
+        <v>895</v>
       </c>
       <c r="I3" s="7">
-        <f>MIN(G3/F3, 1)</f>
-        <v>0.13867488443759629</v>
+        <f t="shared" ref="I3:I18" si="1">MIN(G3/F3, 1)</f>
+        <v>0.25292153589315525</v>
       </c>
       <c r="J3" s="7">
-        <f>H3/F3</f>
-        <v>0.86132511556240365</v>
+        <f t="shared" ref="J3:J18" si="2">H3/F3</f>
+        <v>0.74707846410684475</v>
       </c>
       <c r="K3" s="2">
-        <v>0.08</v>
+        <v>8.1959580000000004E-2</v>
       </c>
       <c r="L3" s="7">
-        <f>G3*K3</f>
-        <v>14.4</v>
+        <f t="shared" ref="L3:L18" si="3">G3*K3</f>
+        <v>24.833752740000001</v>
       </c>
       <c r="M3" s="2">
-        <v>4.8600000000000003</v>
+        <v>18.78</v>
       </c>
       <c r="N3" s="2">
-        <v>79.88</v>
+        <v>307.33</v>
       </c>
       <c r="O3" s="2">
-        <v>6.08</v>
+        <v>23.47</v>
       </c>
       <c r="P3" s="2">
-        <v>1.22</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="Q3" s="2">
-        <f>M3/N3</f>
-        <v>6.0841261892839268E-2</v>
+        <f t="shared" ref="Q3:Q18" si="4">M3/N3</f>
+        <v>6.1106953437672869E-2</v>
       </c>
       <c r="R3" s="7">
-        <f>L3-M3</f>
-        <v>9.5399999999999991</v>
+        <f t="shared" ref="R3:R18" si="5">L3-M3</f>
+        <v>6.0537527400000002</v>
       </c>
       <c r="S3" s="7">
-        <f>R3</f>
-        <v>9.5399999999999991</v>
+        <f>S2+R3</f>
+        <v>15.593752739999999</v>
       </c>
       <c r="T3" s="8">
-        <f>N3*$U$21</f>
-        <v>67.578479999999999</v>
+        <f>T2+N3*$U$21</f>
+        <v>327.57965999999999</v>
       </c>
       <c r="U3" s="4">
-        <f>T3/$U$22</f>
-        <v>0.50696534133533377</v>
+        <f t="shared" ref="U3:U18" si="6">T3/$U$22</f>
+        <v>2.457461815453863</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
@@ -2113,70 +2129,70 @@
         <v>45</v>
       </c>
       <c r="C4" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
-        <v>121.41</v>
+        <v>50.88</v>
       </c>
       <c r="E4" s="2">
-        <v>38.65</v>
+        <v>21.69</v>
       </c>
       <c r="F4" s="2">
-        <v>1198</v>
+        <v>629</v>
       </c>
       <c r="G4" s="2">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H19" si="0">MAX(F4-G4, 0)</f>
-        <v>895</v>
+        <f t="shared" si="0"/>
+        <v>202</v>
       </c>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I19" si="1">MIN(G4/F4, 1)</f>
-        <v>0.25292153589315525</v>
+        <f t="shared" si="1"/>
+        <v>0.67885532591414943</v>
       </c>
       <c r="J4" s="7">
-        <f t="shared" ref="J4:J19" si="2">H4/F4</f>
-        <v>0.74707846410684475</v>
+        <f t="shared" si="2"/>
+        <v>0.32114467408585057</v>
       </c>
       <c r="K4" s="2">
-        <v>8.1959580000000004E-2</v>
+        <v>8.3406800000000003E-2</v>
       </c>
       <c r="L4" s="7">
-        <f t="shared" ref="L4:L19" si="3">G4*K4</f>
-        <v>24.833752740000001</v>
+        <f t="shared" si="3"/>
+        <v>35.614703599999999</v>
       </c>
       <c r="M4" s="2">
-        <v>18.78</v>
+        <v>13.38</v>
       </c>
       <c r="N4" s="2">
-        <v>307.33</v>
+        <v>219.34</v>
       </c>
       <c r="O4" s="2">
-        <v>23.47</v>
+        <v>16.72</v>
       </c>
       <c r="P4" s="2">
-        <v>4.6900000000000004</v>
+        <v>3.34</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ref="Q4:Q19" si="4">M4/N4</f>
-        <v>6.1106953437672869E-2</v>
+        <f t="shared" si="4"/>
+        <v>6.1001185374304732E-2</v>
       </c>
       <c r="R4" s="7">
-        <f t="shared" ref="R4:R19" si="5">L4-M4</f>
-        <v>6.0537527400000002</v>
+        <f t="shared" si="5"/>
+        <v>22.234703599999996</v>
       </c>
       <c r="S4" s="7">
         <f>S3+R4</f>
-        <v>15.593752739999999</v>
+        <v>37.828456339999995</v>
       </c>
       <c r="T4" s="8">
-        <f>T3+N4*$U$21</f>
-        <v>327.57965999999999</v>
+        <f t="shared" ref="T4:T18" si="7">T3+N4*$U$21</f>
+        <v>513.1413</v>
       </c>
       <c r="U4" s="4">
-        <f t="shared" ref="U4:U19" si="6">T4/$U$22</f>
-        <v>2.457461815453863</v>
+        <f t="shared" si="6"/>
+        <v>3.849522130532633</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.3">
@@ -2187,70 +2203,70 @@
         <v>46</v>
       </c>
       <c r="C5" s="2">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2">
-        <v>50.88</v>
+        <v>29.68</v>
       </c>
       <c r="E5" s="2">
-        <v>21.69</v>
+        <v>17.53</v>
       </c>
       <c r="F5" s="2">
-        <v>629</v>
+        <v>526</v>
       </c>
       <c r="G5" s="2">
-        <v>427</v>
+        <v>399</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>202</v>
+        <v>127</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>0.67885532591414943</v>
+        <v>0.7585551330798479</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="2"/>
-        <v>0.32114467408585057</v>
+        <v>0.2414448669201521</v>
       </c>
       <c r="K5" s="2">
-        <v>8.3406800000000003E-2</v>
+        <v>8.4231239999999999E-2</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="3"/>
-        <v>35.614703599999999</v>
+        <v>33.608264759999997</v>
       </c>
       <c r="M5" s="2">
-        <v>13.38</v>
+        <v>11.52</v>
       </c>
       <c r="N5" s="2">
-        <v>219.34</v>
+        <v>179.75</v>
       </c>
       <c r="O5" s="2">
-        <v>16.72</v>
+        <v>14.4</v>
       </c>
       <c r="P5" s="2">
-        <v>3.34</v>
+        <v>2.88</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" si="4"/>
-        <v>6.1001185374304732E-2</v>
+        <v>6.408901251738526E-2</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="5"/>
-        <v>22.234703599999996</v>
+        <v>22.088264759999998</v>
       </c>
       <c r="S5" s="7">
-        <f>S4+R5</f>
-        <v>37.828456339999995</v>
+        <f t="shared" ref="S5:S18" si="8">S4+R5</f>
+        <v>59.91672109999999</v>
       </c>
       <c r="T5" s="8">
-        <f t="shared" ref="T5:T19" si="7">T4+N5*$U$21</f>
-        <v>513.1413</v>
+        <f t="shared" si="7"/>
+        <v>665.20979999999997</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="6"/>
-        <v>3.849522130532633</v>
+        <v>4.9903210802700668</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.3">
@@ -2261,70 +2277,70 @@
         <v>47</v>
       </c>
       <c r="C6" s="2">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2">
-        <v>29.68</v>
+        <v>13.21</v>
       </c>
       <c r="E6" s="2">
-        <v>17.53</v>
+        <v>9.69</v>
       </c>
       <c r="F6" s="2">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="G6" s="2">
-        <v>399</v>
+        <v>502</v>
       </c>
       <c r="H6" s="2">
         <f t="shared" si="0"/>
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
         <f t="shared" si="1"/>
-        <v>0.7585551330798479</v>
+        <v>1</v>
       </c>
       <c r="J6" s="7">
         <f t="shared" si="2"/>
-        <v>0.2414448669201521</v>
+        <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>8.4231239999999999E-2</v>
+        <v>8.4308519999999998E-2</v>
       </c>
       <c r="L6" s="7">
         <f t="shared" si="3"/>
-        <v>33.608264759999997</v>
+        <v>42.322877040000002</v>
       </c>
       <c r="M6" s="2">
-        <v>11.52</v>
+        <v>19.86</v>
       </c>
       <c r="N6" s="2">
-        <v>179.75</v>
+        <v>302.91000000000003</v>
       </c>
       <c r="O6" s="2">
-        <v>14.4</v>
+        <v>24.83</v>
       </c>
       <c r="P6" s="2">
-        <v>2.88</v>
+        <v>4.97</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" si="4"/>
-        <v>6.408901251738526E-2</v>
+        <v>6.5564028919481029E-2</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="5"/>
-        <v>22.088264759999998</v>
+        <v>22.462877040000002</v>
       </c>
       <c r="S6" s="7">
-        <f t="shared" ref="S6:S19" si="8">S5+R6</f>
-        <v>59.91672109999999</v>
+        <f t="shared" si="8"/>
+        <v>82.379598139999985</v>
       </c>
       <c r="T6" s="8">
         <f t="shared" si="7"/>
-        <v>665.20979999999997</v>
+        <v>921.47165999999993</v>
       </c>
       <c r="U6" s="4">
         <f t="shared" si="6"/>
-        <v>4.9903210802700668</v>
+        <v>6.9127656414103518</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
@@ -2335,19 +2351,19 @@
         <v>48</v>
       </c>
       <c r="C7" s="2">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="D7" s="2">
-        <v>13.21</v>
+        <v>54.46</v>
       </c>
       <c r="E7" s="2">
-        <v>9.69</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>281</v>
+        <v>646</v>
       </c>
       <c r="G7" s="2">
-        <v>502</v>
+        <v>657</v>
       </c>
       <c r="H7" s="2">
         <f t="shared" si="0"/>
@@ -2362,43 +2378,43 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>8.4308519999999998E-2</v>
+        <v>8.1547850000000005E-2</v>
       </c>
       <c r="L7" s="7">
         <f t="shared" si="3"/>
-        <v>42.322877040000002</v>
+        <v>53.576937450000003</v>
       </c>
       <c r="M7" s="2">
-        <v>19.86</v>
+        <v>28.49</v>
       </c>
       <c r="N7" s="2">
-        <v>302.91000000000003</v>
+        <v>427.47</v>
       </c>
       <c r="O7" s="2">
-        <v>24.83</v>
+        <v>35.61</v>
       </c>
       <c r="P7" s="2">
-        <v>4.97</v>
+        <v>7.12</v>
       </c>
       <c r="Q7" s="2">
         <f t="shared" si="4"/>
-        <v>6.5564028919481029E-2</v>
+        <v>6.6647951903057515E-2</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="5"/>
-        <v>22.462877040000002</v>
+        <v>25.086937450000004</v>
       </c>
       <c r="S7" s="7">
         <f t="shared" si="8"/>
-        <v>82.379598139999985</v>
+        <v>107.46653558999999</v>
       </c>
       <c r="T7" s="8">
         <f t="shared" si="7"/>
-        <v>921.47165999999993</v>
+        <v>1283.1112800000001</v>
       </c>
       <c r="U7" s="4">
         <f t="shared" si="6"/>
-        <v>6.9127656414103518</v>
+        <v>9.6257410352588142</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -2409,70 +2425,70 @@
         <v>49</v>
       </c>
       <c r="C8" s="2">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2">
-        <v>54.46</v>
+        <v>106.41</v>
       </c>
       <c r="E8" s="2">
-        <v>20.190000000000001</v>
+        <v>25.58</v>
       </c>
       <c r="F8" s="2">
-        <v>646</v>
+        <v>793</v>
       </c>
       <c r="G8" s="2">
-        <v>657</v>
+        <v>596</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I8" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.75157629255989911</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.24842370744010089</v>
       </c>
       <c r="K8" s="2">
-        <v>8.1547850000000005E-2</v>
+        <v>8.0069260000000003E-2</v>
       </c>
       <c r="L8" s="7">
         <f t="shared" si="3"/>
-        <v>53.576937450000003</v>
+        <v>47.721278959999999</v>
       </c>
       <c r="M8" s="2">
-        <v>28.49</v>
+        <v>26.89</v>
       </c>
       <c r="N8" s="2">
-        <v>427.47</v>
+        <v>399.33</v>
       </c>
       <c r="O8" s="2">
-        <v>35.61</v>
+        <v>33.61</v>
       </c>
       <c r="P8" s="2">
-        <v>7.12</v>
+        <v>6.72</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" si="4"/>
-        <v>6.6647951903057515E-2</v>
+        <v>6.733779079958932E-2</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="5"/>
-        <v>25.086937450000004</v>
+        <v>20.831278959999999</v>
       </c>
       <c r="S8" s="7">
         <f t="shared" si="8"/>
-        <v>107.46653558999999</v>
+        <v>128.29781455</v>
       </c>
       <c r="T8" s="8">
         <f t="shared" si="7"/>
-        <v>1283.1112800000001</v>
+        <v>1620.9444600000002</v>
       </c>
       <c r="U8" s="4">
         <f t="shared" si="6"/>
-        <v>9.6257410352588142</v>
+        <v>12.160123480870217</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -2483,70 +2499,70 @@
         <v>50</v>
       </c>
       <c r="C9" s="2">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2">
-        <v>106.41</v>
+        <v>113</v>
       </c>
       <c r="E9" s="2">
-        <v>25.58</v>
+        <v>27.48</v>
       </c>
       <c r="F9" s="2">
-        <v>793</v>
+        <v>852</v>
       </c>
       <c r="G9" s="2">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>297</v>
       </c>
       <c r="I9" s="7">
         <f t="shared" si="1"/>
-        <v>0.75157629255989911</v>
+        <v>0.65140845070422537</v>
       </c>
       <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>0.24842370744010089</v>
+        <v>0.34859154929577463</v>
       </c>
       <c r="K9" s="2">
-        <v>8.0069260000000003E-2</v>
+        <v>8.0054749999999994E-2</v>
       </c>
       <c r="L9" s="7">
         <f t="shared" si="3"/>
-        <v>47.721278959999999</v>
+        <v>44.430386249999998</v>
       </c>
       <c r="M9" s="2">
-        <v>26.89</v>
+        <v>33.86</v>
       </c>
       <c r="N9" s="2">
-        <v>399.33</v>
+        <v>501.84</v>
       </c>
       <c r="O9" s="2">
-        <v>33.61</v>
+        <v>42.32</v>
       </c>
       <c r="P9" s="2">
-        <v>6.72</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" si="4"/>
-        <v>6.733779079958932E-2</v>
+        <v>6.7471704128806001E-2</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="5"/>
-        <v>20.831278959999999</v>
+        <v>10.570386249999999</v>
       </c>
       <c r="S9" s="7">
         <f t="shared" si="8"/>
-        <v>128.29781455</v>
+        <v>138.86820080000001</v>
       </c>
       <c r="T9" s="8">
         <f t="shared" si="7"/>
-        <v>1620.9444600000002</v>
+        <v>2045.5011000000002</v>
       </c>
       <c r="U9" s="4">
         <f t="shared" si="6"/>
-        <v>12.160123480870217</v>
+        <v>15.345094523630907</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.3">
@@ -2557,70 +2573,70 @@
         <v>51</v>
       </c>
       <c r="C10" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D10" s="2">
-        <v>113</v>
+        <v>86.83</v>
       </c>
       <c r="E10" s="2">
-        <v>27.48</v>
+        <v>25.27</v>
       </c>
       <c r="F10" s="2">
-        <v>852</v>
+        <v>758</v>
       </c>
       <c r="G10" s="2">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="H10" s="2">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>171</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="1"/>
-        <v>0.65140845070422537</v>
+        <v>0.77440633245382584</v>
       </c>
       <c r="J10" s="7">
         <f t="shared" si="2"/>
-        <v>0.34859154929577463</v>
+        <v>0.22559366754617413</v>
       </c>
       <c r="K10" s="2">
-        <v>8.0054749999999994E-2</v>
+        <v>8.0280909999999997E-2</v>
       </c>
       <c r="L10" s="7">
         <f t="shared" si="3"/>
-        <v>44.430386249999998</v>
+        <v>47.124894169999997</v>
       </c>
       <c r="M10" s="2">
-        <v>33.86</v>
+        <v>42.86</v>
       </c>
       <c r="N10" s="2">
-        <v>501.84</v>
+        <v>656.71</v>
       </c>
       <c r="O10" s="2">
-        <v>42.32</v>
+        <v>53.57</v>
       </c>
       <c r="P10" s="2">
-        <v>8.4600000000000009</v>
+        <v>10.71</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" si="4"/>
-        <v>6.7471704128806001E-2</v>
+        <v>6.5264728723485252E-2</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="5"/>
-        <v>10.570386249999999</v>
+        <v>4.264894169999998</v>
       </c>
       <c r="S10" s="7">
         <f t="shared" si="8"/>
-        <v>138.86820080000001</v>
+        <v>143.13309497</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="7"/>
-        <v>2045.5011000000002</v>
+        <v>2601.0777600000001</v>
       </c>
       <c r="U10" s="4">
         <f t="shared" si="6"/>
-        <v>15.345094523630907</v>
+        <v>19.51296144036009</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -2631,70 +2647,70 @@
         <v>52</v>
       </c>
       <c r="C11" s="2">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2">
-        <v>86.83</v>
+        <v>52.22</v>
       </c>
       <c r="E11" s="2">
-        <v>25.27</v>
+        <v>15.97</v>
       </c>
       <c r="F11" s="2">
-        <v>758</v>
+        <v>463</v>
       </c>
       <c r="G11" s="2">
-        <v>587</v>
+        <v>437</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
         <f t="shared" si="1"/>
-        <v>0.77440633245382584</v>
+        <v>0.94384449244060475</v>
       </c>
       <c r="J11" s="7">
         <f t="shared" si="2"/>
-        <v>0.22559366754617413</v>
+        <v>5.6155507559395246E-2</v>
       </c>
       <c r="K11" s="2">
-        <v>8.0280909999999997E-2</v>
+        <v>7.9938079999999995E-2</v>
       </c>
       <c r="L11" s="7">
         <f t="shared" si="3"/>
-        <v>47.124894169999997</v>
+        <v>34.932940959999996</v>
       </c>
       <c r="M11" s="2">
-        <v>42.86</v>
+        <v>38.18</v>
       </c>
       <c r="N11" s="2">
-        <v>656.71</v>
+        <v>596.25</v>
       </c>
       <c r="O11" s="2">
-        <v>53.57</v>
+        <v>47.72</v>
       </c>
       <c r="P11" s="2">
-        <v>10.71</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" si="4"/>
-        <v>6.5264728723485252E-2</v>
+        <v>6.4033542976939209E-2</v>
       </c>
       <c r="R11" s="7">
         <f t="shared" si="5"/>
-        <v>4.264894169999998</v>
+        <v>-3.2470590400000034</v>
       </c>
       <c r="S11" s="7">
         <f t="shared" si="8"/>
-        <v>143.13309497</v>
+        <v>139.88603592999999</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="7"/>
-        <v>2601.0777600000001</v>
+        <v>3105.5052599999999</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="6"/>
-        <v>19.51296144036009</v>
+        <v>23.297113728432105</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -2705,70 +2721,70 @@
         <v>53</v>
       </c>
       <c r="C12" s="2">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2">
-        <v>52.22</v>
+        <v>45.83</v>
       </c>
       <c r="E12" s="2">
-        <v>15.97</v>
+        <v>12.47</v>
       </c>
       <c r="F12" s="2">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="G12" s="2">
-        <v>437</v>
+        <v>302</v>
       </c>
       <c r="H12" s="2">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7">
         <f t="shared" si="1"/>
-        <v>0.94384449244060475</v>
+        <v>0.75689223057644106</v>
       </c>
       <c r="J12" s="7">
         <f t="shared" si="2"/>
-        <v>5.6155507559395246E-2</v>
+        <v>0.24310776942355888</v>
       </c>
       <c r="K12" s="2">
-        <v>7.9938079999999995E-2</v>
+        <v>7.9552499999999998E-2</v>
       </c>
       <c r="L12" s="7">
         <f t="shared" si="3"/>
-        <v>34.932940959999996</v>
+        <v>24.024854999999999</v>
       </c>
       <c r="M12" s="2">
-        <v>38.18</v>
+        <v>35.54</v>
       </c>
       <c r="N12" s="2">
-        <v>596.25</v>
+        <v>554.85</v>
       </c>
       <c r="O12" s="2">
-        <v>47.72</v>
+        <v>44.43</v>
       </c>
       <c r="P12" s="2">
-        <v>9.5399999999999991</v>
+        <v>8.89</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" si="4"/>
-        <v>6.4033542976939209E-2</v>
+        <v>6.405334775164459E-2</v>
       </c>
       <c r="R12" s="7">
         <f t="shared" si="5"/>
-        <v>-3.2470590400000034</v>
+        <v>-11.515145</v>
       </c>
       <c r="S12" s="7">
         <f t="shared" si="8"/>
-        <v>139.88603592999999</v>
+        <v>128.37089093</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="7"/>
-        <v>3105.5052599999999</v>
+        <v>3574.9083599999999</v>
       </c>
       <c r="U12" s="4">
         <f t="shared" si="6"/>
-        <v>23.297113728432105</v>
+        <v>26.81851732933233</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
@@ -2779,144 +2795,144 @@
         <v>54</v>
       </c>
       <c r="C13" s="2">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2">
-        <v>45.83</v>
+        <v>123.07</v>
       </c>
       <c r="E13" s="2">
-        <v>12.47</v>
+        <v>31.87</v>
       </c>
       <c r="F13" s="2">
-        <v>399</v>
+        <v>956</v>
       </c>
       <c r="G13" s="2">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="H13" s="2">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>789</v>
       </c>
       <c r="I13" s="7">
         <f t="shared" si="1"/>
-        <v>0.75689223057644106</v>
+        <v>0.17468619246861924</v>
       </c>
       <c r="J13" s="7">
         <f t="shared" si="2"/>
-        <v>0.24310776942355888</v>
+        <v>0.82531380753138073</v>
       </c>
       <c r="K13" s="2">
-        <v>7.9552499999999998E-2</v>
+        <v>8.0552250000000006E-2</v>
       </c>
       <c r="L13" s="7">
         <f t="shared" si="3"/>
-        <v>24.024854999999999</v>
+        <v>13.45222575</v>
       </c>
       <c r="M13" s="2">
-        <v>35.54</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="N13" s="2">
-        <v>554.85</v>
+        <v>586.73</v>
       </c>
       <c r="O13" s="2">
-        <v>44.43</v>
+        <v>47.12</v>
       </c>
       <c r="P13" s="2">
-        <v>8.89</v>
+        <v>9.42</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" si="4"/>
-        <v>6.405334775164459E-2</v>
+        <v>6.4254427078894893E-2</v>
       </c>
       <c r="R13" s="7">
         <f t="shared" si="5"/>
-        <v>-11.515145</v>
+        <v>-24.247774250000003</v>
       </c>
       <c r="S13" s="7">
         <f t="shared" si="8"/>
-        <v>128.37089093</v>
+        <v>104.12311668</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="7"/>
-        <v>3574.9083599999999</v>
+        <v>4071.2819399999998</v>
       </c>
       <c r="U13" s="4">
         <f t="shared" si="6"/>
-        <v>26.81851732933233</v>
+        <v>30.54225011252813</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2">
-        <v>123.07</v>
+        <v>209.62</v>
       </c>
       <c r="E14" s="2">
-        <v>31.87</v>
+        <v>38.85</v>
       </c>
       <c r="F14" s="2">
-        <v>956</v>
+        <v>1321</v>
       </c>
       <c r="G14" s="2">
-        <v>167</v>
+        <v>242</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>789</v>
+        <v>1079</v>
       </c>
       <c r="I14" s="7">
         <f t="shared" si="1"/>
-        <v>0.17468619246861924</v>
+        <v>0.18319454958364875</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
-        <v>0.82531380753138073</v>
+        <v>0.81680545041635122</v>
       </c>
       <c r="K14" s="2">
-        <v>8.0552250000000006E-2</v>
+        <v>8.1725790000000006E-2</v>
       </c>
       <c r="L14" s="7">
         <f t="shared" si="3"/>
-        <v>13.45222575</v>
+        <v>19.77764118</v>
       </c>
       <c r="M14" s="2">
-        <v>37.700000000000003</v>
+        <v>27.94</v>
       </c>
       <c r="N14" s="2">
-        <v>586.73</v>
+        <v>436.67</v>
       </c>
       <c r="O14" s="2">
-        <v>47.12</v>
+        <v>34.93</v>
       </c>
       <c r="P14" s="2">
-        <v>9.42</v>
+        <v>6.99</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" si="4"/>
-        <v>6.4254427078894893E-2</v>
+        <v>6.398424439508095E-2</v>
       </c>
       <c r="R14" s="7">
         <f t="shared" si="5"/>
-        <v>-24.247774250000003</v>
+        <v>-8.1623588200000015</v>
       </c>
       <c r="S14" s="7">
         <f t="shared" si="8"/>
-        <v>104.12311668</v>
+        <v>95.960757860000001</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="7"/>
-        <v>4071.2819399999998</v>
+        <v>4440.7047599999996</v>
       </c>
       <c r="U14" s="4">
         <f t="shared" si="6"/>
-        <v>30.54225011252813</v>
+        <v>33.313614103525879</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -2927,70 +2943,70 @@
         <v>44</v>
       </c>
       <c r="C15" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
-        <v>209.62</v>
+        <v>179.45</v>
       </c>
       <c r="E15" s="2">
-        <v>38.85</v>
+        <v>44.97</v>
       </c>
       <c r="F15" s="2">
-        <v>1321</v>
+        <v>1304</v>
       </c>
       <c r="G15" s="2">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
-        <v>1079</v>
+        <v>1023</v>
       </c>
       <c r="I15" s="7">
         <f t="shared" si="1"/>
-        <v>0.18319454958364875</v>
+        <v>0.21549079754601227</v>
       </c>
       <c r="J15" s="7">
         <f t="shared" si="2"/>
-        <v>0.81680545041635122</v>
+        <v>0.7845092024539877</v>
       </c>
       <c r="K15" s="2">
-        <v>8.1725790000000006E-2</v>
+        <v>8.0322669999999999E-2</v>
       </c>
       <c r="L15" s="7">
         <f t="shared" si="3"/>
-        <v>19.77764118</v>
+        <v>22.570670270000001</v>
       </c>
       <c r="M15" s="2">
-        <v>27.94</v>
+        <v>19.22</v>
       </c>
       <c r="N15" s="2">
-        <v>436.67</v>
+        <v>302</v>
       </c>
       <c r="O15" s="2">
-        <v>34.93</v>
+        <v>24.02</v>
       </c>
       <c r="P15" s="2">
-        <v>6.99</v>
+        <v>4.8</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" si="4"/>
-        <v>6.398424439508095E-2</v>
+        <v>6.3642384105960265E-2</v>
       </c>
       <c r="R15" s="7">
         <f t="shared" si="5"/>
-        <v>-8.1623588200000015</v>
+        <v>3.3506702700000019</v>
       </c>
       <c r="S15" s="7">
         <f t="shared" si="8"/>
-        <v>95.960757860000001</v>
+        <v>99.311428129999996</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="7"/>
-        <v>4440.7047599999996</v>
+        <v>4696.1967599999998</v>
       </c>
       <c r="U15" s="4">
         <f t="shared" si="6"/>
-        <v>33.313614103525879</v>
+        <v>35.230283270817701</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -3001,70 +3017,70 @@
         <v>45</v>
       </c>
       <c r="C16" s="2">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2">
-        <v>179.45</v>
+        <v>89.02</v>
       </c>
       <c r="E16" s="2">
-        <v>44.97</v>
+        <v>23.34</v>
       </c>
       <c r="F16" s="2">
-        <v>1304</v>
+        <v>677</v>
       </c>
       <c r="G16" s="2">
-        <v>281</v>
+        <v>365</v>
       </c>
       <c r="H16" s="2">
         <f t="shared" si="0"/>
-        <v>1023</v>
+        <v>312</v>
       </c>
       <c r="I16" s="7">
         <f t="shared" si="1"/>
-        <v>0.21549079754601227</v>
+        <v>0.53914327917282123</v>
       </c>
       <c r="J16" s="7">
         <f t="shared" si="2"/>
-        <v>0.7845092024539877</v>
+        <v>0.46085672082717871</v>
       </c>
       <c r="K16" s="2">
-        <v>8.0322669999999999E-2</v>
+        <v>8.0107499999999998E-2</v>
       </c>
       <c r="L16" s="7">
         <f t="shared" si="3"/>
-        <v>22.570670270000001</v>
+        <v>29.239237499999998</v>
       </c>
       <c r="M16" s="2">
-        <v>19.22</v>
+        <v>10.76</v>
       </c>
       <c r="N16" s="2">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="O16" s="2">
-        <v>24.02</v>
+        <v>13.45</v>
       </c>
       <c r="P16" s="2">
-        <v>4.8</v>
+        <v>2.69</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" si="4"/>
-        <v>6.3642384105960265E-2</v>
+        <v>6.4431137724550891E-2</v>
       </c>
       <c r="R16" s="7">
         <f t="shared" si="5"/>
-        <v>3.3506702700000019</v>
+        <v>18.479237499999996</v>
       </c>
       <c r="S16" s="7">
         <f t="shared" si="8"/>
-        <v>99.311428129999996</v>
+        <v>117.79066562999999</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="7"/>
-        <v>4696.1967599999998</v>
+        <v>4837.47876</v>
       </c>
       <c r="U16" s="4">
         <f t="shared" si="6"/>
-        <v>35.230283270817701</v>
+        <v>36.290163240810202</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
@@ -3075,70 +3091,70 @@
         <v>46</v>
       </c>
       <c r="C17" s="2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D17" s="2">
-        <v>89.02</v>
+        <v>84.71</v>
       </c>
       <c r="E17" s="2">
-        <v>23.34</v>
+        <v>23.17</v>
       </c>
       <c r="F17" s="2">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="G17" s="2">
-        <v>365</v>
+        <v>401</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" si="0"/>
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="I17" s="7">
         <f t="shared" si="1"/>
-        <v>0.53914327917282123</v>
+        <v>0.59672619047619047</v>
       </c>
       <c r="J17" s="7">
         <f t="shared" si="2"/>
-        <v>0.46085672082717871</v>
+        <v>0.40327380952380953</v>
       </c>
       <c r="K17" s="2">
-        <v>8.0107499999999998E-2</v>
+        <v>7.961232E-2</v>
       </c>
       <c r="L17" s="7">
         <f t="shared" si="3"/>
-        <v>29.239237499999998</v>
+        <v>31.924540319999998</v>
       </c>
       <c r="M17" s="2">
-        <v>10.76</v>
+        <v>15.82</v>
       </c>
       <c r="N17" s="2">
-        <v>167</v>
+        <v>241.6</v>
       </c>
       <c r="O17" s="2">
-        <v>13.45</v>
+        <v>19.78</v>
       </c>
       <c r="P17" s="2">
-        <v>2.69</v>
+        <v>3.96</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" si="4"/>
-        <v>6.4431137724550891E-2</v>
+        <v>6.548013245033113E-2</v>
       </c>
       <c r="R17" s="7">
         <f t="shared" si="5"/>
-        <v>18.479237499999996</v>
+        <v>16.104540319999998</v>
       </c>
       <c r="S17" s="7">
         <f t="shared" si="8"/>
-        <v>117.79066562999999</v>
+        <v>133.89520594999999</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="7"/>
-        <v>4837.47876</v>
+        <v>5041.8723600000003</v>
       </c>
       <c r="U17" s="4">
         <f t="shared" si="6"/>
-        <v>36.290163240810202</v>
+        <v>37.823498574643658</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
@@ -3149,142 +3165,68 @@
         <v>47</v>
       </c>
       <c r="C18" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D18" s="2">
-        <v>84.71</v>
+        <v>22.25</v>
       </c>
       <c r="E18" s="2">
-        <v>23.17</v>
+        <v>10.81</v>
       </c>
       <c r="F18" s="2">
-        <v>672</v>
+        <v>335</v>
       </c>
       <c r="G18" s="2">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="H18" s="2">
         <f t="shared" si="0"/>
-        <v>271</v>
+        <v>0</v>
       </c>
       <c r="I18" s="7">
         <f t="shared" si="1"/>
-        <v>0.59672619047619047</v>
+        <v>1</v>
       </c>
       <c r="J18" s="7">
         <f t="shared" si="2"/>
-        <v>0.40327380952380953</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>7.961232E-2</v>
+        <v>7.9407649999999996E-2</v>
       </c>
       <c r="L18" s="7">
         <f t="shared" si="3"/>
-        <v>31.924540319999998</v>
+        <v>43.1977616</v>
       </c>
       <c r="M18" s="2">
-        <v>15.82</v>
+        <v>18.059999999999999</v>
       </c>
       <c r="N18" s="2">
-        <v>241.6</v>
+        <v>281.19</v>
       </c>
       <c r="O18" s="2">
-        <v>19.78</v>
+        <v>22.57</v>
       </c>
       <c r="P18" s="2">
-        <v>3.96</v>
+        <v>4.51</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="4"/>
-        <v>6.548013245033113E-2</v>
+        <v>6.4227035100821506E-2</v>
       </c>
       <c r="R18" s="7">
         <f t="shared" si="5"/>
-        <v>16.104540319999998</v>
+        <v>25.137761600000001</v>
       </c>
       <c r="S18" s="7">
         <f t="shared" si="8"/>
-        <v>133.89520594999999</v>
+        <v>159.03296755</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="7"/>
-        <v>5041.8723600000003</v>
+        <v>5279.7591000000002</v>
       </c>
       <c r="U18" s="4">
-        <f t="shared" si="6"/>
-        <v>37.823498574643658</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="2">
-        <v>63</v>
-      </c>
-      <c r="D19" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="E19" s="2">
-        <v>10.81</v>
-      </c>
-      <c r="F19" s="2">
-        <v>335</v>
-      </c>
-      <c r="G19" s="2">
-        <v>544</v>
-      </c>
-      <c r="H19" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <v>7.9407649999999996E-2</v>
-      </c>
-      <c r="L19" s="7">
-        <f t="shared" si="3"/>
-        <v>43.1977616</v>
-      </c>
-      <c r="M19" s="2">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="N19" s="2">
-        <v>281.19</v>
-      </c>
-      <c r="O19" s="2">
-        <v>22.57</v>
-      </c>
-      <c r="P19" s="2">
-        <v>4.51</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4227035100821506E-2</v>
-      </c>
-      <c r="R19" s="7">
-        <f t="shared" si="5"/>
-        <v>25.137761600000001</v>
-      </c>
-      <c r="S19" s="7">
-        <f t="shared" si="8"/>
-        <v>159.03296755</v>
-      </c>
-      <c r="T19" s="8">
-        <f t="shared" si="7"/>
-        <v>5279.7591000000002</v>
-      </c>
-      <c r="U19" s="4">
         <f t="shared" si="6"/>
         <v>39.608095273818456</v>
       </c>
@@ -3333,7 +3275,7 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U21" s="2">
         <v>0.84599999999999997</v>
@@ -3360,7 +3302,7 @@
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U22" s="2">
         <v>133.30000000000001</v>
@@ -3387,7 +3329,7 @@
       <c r="R23" s="3"/>
       <c r="S23" s="3"/>
       <c r="T23" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U23" s="2">
         <v>19.600000000000001</v>
@@ -3414,7 +3356,7 @@
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="U24" s="2">
         <v>58.04</v>
@@ -3441,17 +3383,13 @@
       <c r="R25" s="3"/>
       <c r="S25" s="3"/>
       <c r="T25" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="U25" s="2">
         <v>952.24</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:L1"/>
-    <mergeCell ref="M1:U1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Community_Solar_Calculations.xlsx
+++ b/Community_Solar_Calculations.xlsx
@@ -5,43 +5,43 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chels\Documents\Climate\Community-Solar-Repo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chels\OneDrive\Documents\Climate\Community-Solar-Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B530661D-B531-4F71-A2B9-086487886660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6778749-2F11-4C18-99C4-FD430D6763C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="9072" xr2:uid="{E3AAAE2C-EE30-4987-B745-1AE709F25640}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{E3AAAE2C-EE30-4987-B745-1AE709F25640}"/>
   </bookViews>
   <sheets>
     <sheet name="Savings estimate" sheetId="2" r:id="rId1"/>
     <sheet name="Optimization" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Optimization!$I$3:$I$10</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Optimization!$H$3:$H$9</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Optimization!$I$10</definedName>
-    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Optimization!$I$10</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Optimization!$I$3</definedName>
-    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Optimization!$I$4</definedName>
-    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Optimization!$I$6</definedName>
-    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Optimization!$I$7</definedName>
-    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Optimization!$I$8</definedName>
-    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Optimization!$I$10</definedName>
-    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Optimization!$I$10</definedName>
-    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Optimization!$I$10</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs10" localSheetId="1" hidden="1">Optimization!$H$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs3" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs4" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs5" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs6" localSheetId="1" hidden="1">Optimization!$H$7</definedName>
+    <definedName name="solver_lhs7" localSheetId="1" hidden="1">Optimization!$H$9</definedName>
+    <definedName name="solver_lhs8" localSheetId="1" hidden="1">Optimization!$H$9</definedName>
+    <definedName name="solver_lhs9" localSheetId="1" hidden="1">Optimization!$H$9</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="1" hidden="1">6</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Optimization!$L$15</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Optimization!$J$15</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
@@ -54,16 +54,16 @@
     <definedName name="solver_rel7" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel8" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel9" localSheetId="1" hidden="1">3</definedName>
-    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Optimization!$J$10</definedName>
-    <definedName name="solver_rhs10" localSheetId="1" hidden="1">Optimization!$J$10</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Optimization!$J$3</definedName>
-    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Optimization!$J$4</definedName>
-    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Optimization!$J$6</definedName>
-    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Optimization!$J$7</definedName>
-    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Optimization!$J$8</definedName>
-    <definedName name="solver_rhs7" localSheetId="1" hidden="1">Optimization!$J$10</definedName>
-    <definedName name="solver_rhs8" localSheetId="1" hidden="1">Optimization!$J$10</definedName>
-    <definedName name="solver_rhs9" localSheetId="1" hidden="1">Optimization!$J$10</definedName>
+    <definedName name="solver_rhs1" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs10" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs3" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs4" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs5" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs6" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs7" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs8" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
+    <definedName name="solver_rhs9" localSheetId="1" hidden="1">Optimization!#REF!</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
@@ -96,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>a</t>
   </si>
@@ -122,9 +122,6 @@
     <t>c1</t>
   </si>
   <si>
-    <t>d1</t>
-  </si>
-  <si>
     <t>a2</t>
   </si>
   <si>
@@ -134,12 +131,6 @@
     <t>c2</t>
   </si>
   <si>
-    <t>d2</t>
-  </si>
-  <si>
-    <t>a1*sin(b1*(x-c1)) + d1 + a2*sin(b2*(x-c2)) + d2</t>
-  </si>
-  <si>
     <t>Energy from community solar (kWh)</t>
   </si>
   <si>
@@ -164,9 +155,6 @@
     <t>Values</t>
   </si>
   <si>
-    <t>Constraints</t>
-  </si>
-  <si>
     <t>Square Difference</t>
   </si>
   <si>
@@ -278,7 +266,25 @@
     <t>lb CO2/oil barrel</t>
   </si>
   <si>
-    <t>Utility bill ($)</t>
+    <t>a1*sin(b1*(x-c1)) + a2*sin(b2*(x-c2)) + d</t>
+  </si>
+  <si>
+    <t>Ameren data</t>
+  </si>
+  <si>
+    <t>Nexamp data</t>
+  </si>
+  <si>
+    <t>Ameren bill ($)</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>https://www.bostonsolar.us/solar-blog-resource-center/blog/how-much-co2-do-solar-panels-save/</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -317,13 +323,40 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -335,10 +368,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -357,11 +391,33 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,7 +560,7 @@
                   <c:v>502</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>657</c:v>
+                  <c:v>646</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>596</c:v>
@@ -553,7 +609,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Optimization!$F$2</c:f>
+              <c:f>Optimization!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -576,45 +632,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Optimization!$F$3:$F$14</c:f>
+              <c:f>Optimization!$E$3:$E$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>163.19496144153473</c:v>
+                  <c:v>162.50698498150348</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>278.09403873939505</c:v>
+                  <c:v>279.10232992766203</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>388.92064354059448</c:v>
+                  <c:v>389.7238233435217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>485.01647267849614</c:v>
+                  <c:v>484.55430076245511</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>557.13989611455202</c:v>
+                  <c:v>555.17798000214566</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598.35473355364127</c:v>
+                  <c:v>595.32732432153728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>604.69731369880924</c:v>
+                  <c:v>601.43925837026416</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>575.55766440332127</c:v>
+                  <c:v>572.97137524427217</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>513.73817428963787</c:v>
+                  <c:v>512.45007268087966</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>425.18408428993791</c:v>
+                  <c:v>425.24634652052202</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>318.41172800079346</c:v>
+                  <c:v>319.09913876609392</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>203.68950753726699</c:v>
+                  <c:v>203.42854097503877</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -631,11 +687,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Optimization!$K$2</c:f>
+              <c:f>Optimization!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>a1*sin(b1*(x-c1)) + d1 + a2*sin(b2*(x-c2)) + d2</c:v>
+                  <c:v>a1*sin(b1*(x-c1)) + a2*sin(b2*(x-c2)) + d</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -654,45 +710,45 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Optimization!$K$3:$K$14</c:f>
+              <c:f>Optimization!$I$3:$I$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>175.96945611112133</c:v>
+                  <c:v>176.28834612728477</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>296.03869422889102</c:v>
+                  <c:v>296.95054418332165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>384.7658958153001</c:v>
+                  <c:v>385.12795008525995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>455.44756782882797</c:v>
+                  <c:v>454.19037855105194</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>520.3875234332445</c:v>
+                  <c:v>517.30602121754282</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>579.13800606527059</c:v>
+                  <c:v>575.14206027770138</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>616.40655041922741</c:v>
+                  <c:v>613.02383768285358</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>611.19671297982586</c:v>
+                  <c:v>609.62692995841792</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>550.97871678970284</c:v>
+                  <c:v>551.32519493581231</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>441.17093631027751</c:v>
+                  <c:v>442.38586640315089</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>303.37253827233263</c:v>
+                  <c:v>303.98513641382226</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>163.45489138540211</c:v>
+                  <c:v>162.61290239257218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1879,10 +1935,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F4682C-1B74-47DE-BB55-BB91D1497FB3}">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1908,1486 +1964,1501 @@
     <col min="21" max="21" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="40.200000000000003" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" ht="28.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="8"/>
+    </row>
+    <row r="2" spans="1:22" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="8"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="14">
+        <v>30</v>
+      </c>
+      <c r="D3" s="14">
+        <v>175.77</v>
+      </c>
+      <c r="E3" s="14">
+        <v>40.56</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1298</v>
+      </c>
+      <c r="G3" s="14">
+        <v>180</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1118</v>
+      </c>
+      <c r="I3" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J3" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="K3" s="14">
+        <v>0.08</v>
+      </c>
+      <c r="L3" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="M3" s="14">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="N3" s="14">
+        <v>79.88</v>
+      </c>
+      <c r="O3" s="14">
+        <v>6.08</v>
+      </c>
+      <c r="P3" s="14">
+        <v>1.22</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>6.0841262E-2</v>
+      </c>
+      <c r="R3" s="14">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="S3" s="14">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="T3" s="14">
+        <v>68</v>
+      </c>
+      <c r="U3" s="14">
+        <v>1</v>
+      </c>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="14">
+        <v>36</v>
+      </c>
+      <c r="D4" s="14">
+        <v>121.41</v>
+      </c>
+      <c r="E4" s="14">
+        <v>38.65</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1198</v>
+      </c>
+      <c r="G4" s="14">
+        <v>303</v>
+      </c>
+      <c r="H4" s="14">
+        <v>895</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="K4" s="14">
+        <v>8.1959580000000004E-2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>24.83</v>
+      </c>
+      <c r="M4" s="14">
+        <v>18.78</v>
+      </c>
+      <c r="N4" s="14">
+        <v>307.33</v>
+      </c>
+      <c r="O4" s="14">
+        <v>23.47</v>
+      </c>
+      <c r="P4" s="14">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>6.1106952999999999E-2</v>
+      </c>
+      <c r="R4" s="14">
+        <v>6.05</v>
+      </c>
+      <c r="S4" s="14">
+        <v>15.59</v>
+      </c>
+      <c r="T4" s="14">
+        <v>328</v>
+      </c>
+      <c r="U4" s="14">
+        <v>2</v>
+      </c>
+      <c r="V4" s="8"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="14">
+        <v>47</v>
+      </c>
+      <c r="D5" s="14">
+        <v>50.88</v>
+      </c>
+      <c r="E5" s="14">
+        <v>21.69</v>
+      </c>
+      <c r="F5" s="14">
+        <v>629</v>
+      </c>
+      <c r="G5" s="14">
+        <v>427</v>
+      </c>
+      <c r="H5" s="14">
+        <v>202</v>
+      </c>
+      <c r="I5" s="14">
+        <v>0.68</v>
+      </c>
+      <c r="J5" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="K5" s="14">
+        <v>8.3406800000000003E-2</v>
+      </c>
+      <c r="L5" s="14">
+        <v>35.61</v>
+      </c>
+      <c r="M5" s="14">
+        <v>13.38</v>
+      </c>
+      <c r="N5" s="14">
+        <v>219.34</v>
+      </c>
+      <c r="O5" s="14">
+        <v>16.72</v>
+      </c>
+      <c r="P5" s="14">
+        <v>3.34</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>6.1001184999999999E-2</v>
+      </c>
+      <c r="R5" s="14">
+        <v>22.23</v>
+      </c>
+      <c r="S5" s="14">
+        <v>37.83</v>
+      </c>
+      <c r="T5" s="14">
+        <v>513</v>
+      </c>
+      <c r="U5" s="14">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="V5" s="8"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="14">
+        <v>52</v>
+      </c>
+      <c r="D6" s="14">
+        <v>29.68</v>
+      </c>
+      <c r="E6" s="14">
+        <v>17.53</v>
+      </c>
+      <c r="F6" s="14">
+        <v>526</v>
+      </c>
+      <c r="G6" s="14">
+        <v>399</v>
+      </c>
+      <c r="H6" s="14">
+        <v>127</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="J6" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K6" s="14">
+        <v>8.4231239999999999E-2</v>
+      </c>
+      <c r="L6" s="14">
+        <v>33.61</v>
+      </c>
+      <c r="M6" s="14">
+        <v>11.52</v>
+      </c>
+      <c r="N6" s="14">
+        <v>179.75</v>
+      </c>
+      <c r="O6" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="P6" s="14">
+        <v>2.88</v>
+      </c>
+      <c r="Q6" s="14">
+        <v>6.4089013E-2</v>
+      </c>
+      <c r="R6" s="14">
+        <v>22.09</v>
+      </c>
+      <c r="S6" s="14">
+        <v>59.92</v>
+      </c>
+      <c r="T6" s="14">
+        <v>665</v>
+      </c>
+      <c r="U6" s="14">
+        <v>5</v>
+      </c>
+      <c r="V6" s="8"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="14">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14">
+        <v>13.21</v>
+      </c>
+      <c r="E7" s="14">
+        <v>9.69</v>
+      </c>
+      <c r="F7" s="14">
+        <v>281</v>
+      </c>
+      <c r="G7" s="14">
+        <v>502</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>1.79</v>
+      </c>
+      <c r="J7" s="14">
+        <v>0</v>
+      </c>
+      <c r="K7" s="14">
+        <v>8.4308519999999998E-2</v>
+      </c>
+      <c r="L7" s="14">
+        <v>42.32</v>
+      </c>
+      <c r="M7" s="14">
+        <v>19.86</v>
+      </c>
+      <c r="N7" s="14">
+        <v>302.91000000000003</v>
+      </c>
+      <c r="O7" s="14">
+        <v>24.83</v>
+      </c>
+      <c r="P7" s="14">
+        <v>4.97</v>
+      </c>
+      <c r="Q7" s="14">
+        <v>6.5564028999999996E-2</v>
+      </c>
+      <c r="R7" s="14">
+        <v>22.46</v>
+      </c>
+      <c r="S7" s="14">
+        <v>82.38</v>
+      </c>
+      <c r="T7" s="14">
+        <v>921</v>
+      </c>
+      <c r="U7" s="14">
+        <v>7</v>
+      </c>
+      <c r="V7" s="8"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="14">
+        <v>72</v>
+      </c>
+      <c r="D8" s="14">
+        <v>54.46</v>
+      </c>
+      <c r="E8" s="14">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="F8" s="14">
+        <v>646</v>
+      </c>
+      <c r="G8" s="14">
+        <v>646</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <v>1</v>
+      </c>
+      <c r="J8" s="14">
+        <v>0</v>
+      </c>
+      <c r="K8" s="14">
+        <v>8.1547850000000005E-2</v>
+      </c>
+      <c r="L8" s="14">
+        <v>52.68</v>
+      </c>
+      <c r="M8" s="14">
+        <v>28.49</v>
+      </c>
+      <c r="N8" s="14">
+        <v>427.47</v>
+      </c>
+      <c r="O8" s="14">
+        <v>35.61</v>
+      </c>
+      <c r="P8" s="14">
+        <v>7.12</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>6.6647951999999996E-2</v>
+      </c>
+      <c r="R8" s="14">
+        <v>24.19</v>
+      </c>
+      <c r="S8" s="14">
+        <v>106.57</v>
+      </c>
+      <c r="T8" s="14">
+        <v>1283</v>
+      </c>
+      <c r="U8" s="14">
+        <v>10</v>
+      </c>
+      <c r="V8" s="8"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="14">
+        <v>76</v>
+      </c>
+      <c r="D9" s="14">
+        <v>106.41</v>
+      </c>
+      <c r="E9" s="14">
+        <v>25.58</v>
+      </c>
+      <c r="F9" s="14">
+        <v>793</v>
+      </c>
+      <c r="G9" s="14">
+        <v>596</v>
+      </c>
+      <c r="H9" s="14">
+        <v>197</v>
+      </c>
+      <c r="I9" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="J9" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="K9" s="14">
+        <v>8.0069260000000003E-2</v>
+      </c>
+      <c r="L9" s="14">
+        <v>47.72</v>
+      </c>
+      <c r="M9" s="14">
+        <v>26.89</v>
+      </c>
+      <c r="N9" s="14">
+        <v>399.33</v>
+      </c>
+      <c r="O9" s="14">
+        <v>33.61</v>
+      </c>
+      <c r="P9" s="14">
+        <v>6.72</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>6.7337790999999994E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <v>20.83</v>
+      </c>
+      <c r="S9" s="14">
+        <v>127.4</v>
+      </c>
+      <c r="T9" s="14">
+        <v>1621</v>
+      </c>
+      <c r="U9" s="14">
+        <v>12</v>
+      </c>
+      <c r="V9" s="8"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="14">
+        <v>74</v>
+      </c>
+      <c r="D10" s="14">
+        <v>113</v>
+      </c>
+      <c r="E10" s="14">
+        <v>27.48</v>
+      </c>
+      <c r="F10" s="14">
+        <v>852</v>
+      </c>
+      <c r="G10" s="14">
+        <v>555</v>
+      </c>
+      <c r="H10" s="14">
+        <v>297</v>
+      </c>
+      <c r="I10" s="14">
+        <v>0.65</v>
+      </c>
+      <c r="J10" s="14">
+        <v>0.35</v>
+      </c>
+      <c r="K10" s="14">
+        <v>8.0054749999999994E-2</v>
+      </c>
+      <c r="L10" s="14">
+        <v>44.43</v>
+      </c>
+      <c r="M10" s="14">
+        <v>33.86</v>
+      </c>
+      <c r="N10" s="14">
+        <v>501.84</v>
+      </c>
+      <c r="O10" s="14">
+        <v>42.32</v>
+      </c>
+      <c r="P10" s="14">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>6.7471703999999993E-2</v>
+      </c>
+      <c r="R10" s="14">
+        <v>10.57</v>
+      </c>
+      <c r="S10" s="14">
+        <v>137.97</v>
+      </c>
+      <c r="T10" s="14">
+        <v>2046</v>
+      </c>
+      <c r="U10" s="14">
+        <v>15</v>
+      </c>
+      <c r="V10" s="8"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="14">
+        <v>71</v>
+      </c>
+      <c r="D11" s="14">
+        <v>86.83</v>
+      </c>
+      <c r="E11" s="14">
+        <v>25.27</v>
+      </c>
+      <c r="F11" s="14">
+        <v>758</v>
+      </c>
+      <c r="G11" s="14">
+        <v>587</v>
+      </c>
+      <c r="H11" s="14">
+        <v>171</v>
+      </c>
+      <c r="I11" s="14">
+        <v>0.77</v>
+      </c>
+      <c r="J11" s="14">
+        <v>0.23</v>
+      </c>
+      <c r="K11" s="14">
+        <v>8.0280909999999997E-2</v>
+      </c>
+      <c r="L11" s="14">
+        <v>47.12</v>
+      </c>
+      <c r="M11" s="14">
+        <v>42.86</v>
+      </c>
+      <c r="N11" s="14">
+        <v>656.71</v>
+      </c>
+      <c r="O11" s="14">
+        <v>53.57</v>
+      </c>
+      <c r="P11" s="14">
+        <v>10.71</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>6.5264728999999994E-2</v>
+      </c>
+      <c r="R11" s="14">
+        <v>4.26</v>
+      </c>
+      <c r="S11" s="14">
+        <v>142.24</v>
+      </c>
+      <c r="T11" s="14">
+        <v>2601</v>
+      </c>
+      <c r="U11" s="14">
+        <v>20</v>
+      </c>
+      <c r="V11" s="8"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="14">
+        <v>63</v>
+      </c>
+      <c r="D12" s="14">
+        <v>52.22</v>
+      </c>
+      <c r="E12" s="14">
+        <v>15.97</v>
+      </c>
+      <c r="F12" s="14">
+        <v>463</v>
+      </c>
+      <c r="G12" s="14">
+        <v>437</v>
+      </c>
+      <c r="H12" s="14">
+        <v>26</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="J12" s="14">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="14">
+        <v>7.9938079999999995E-2</v>
+      </c>
+      <c r="L12" s="14">
+        <v>34.93</v>
+      </c>
+      <c r="M12" s="14">
+        <v>38.18</v>
+      </c>
+      <c r="N12" s="14">
+        <v>596.25</v>
+      </c>
+      <c r="O12" s="14">
+        <v>47.72</v>
+      </c>
+      <c r="P12" s="14">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>6.4033542999999998E-2</v>
+      </c>
+      <c r="R12" s="14">
+        <v>-3.25</v>
+      </c>
+      <c r="S12" s="14">
+        <v>138.99</v>
+      </c>
+      <c r="T12" s="14">
+        <v>3106</v>
+      </c>
+      <c r="U12" s="14">
+        <v>23</v>
+      </c>
+      <c r="V12" s="8"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="14">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14">
+        <v>45.83</v>
+      </c>
+      <c r="E13" s="14">
+        <v>12.47</v>
+      </c>
+      <c r="F13" s="14">
+        <v>399</v>
+      </c>
+      <c r="G13" s="14">
+        <v>302</v>
+      </c>
+      <c r="H13" s="14">
+        <v>97</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0.76</v>
+      </c>
+      <c r="J13" s="14">
+        <v>0.24</v>
+      </c>
+      <c r="K13" s="14">
+        <v>7.9552499999999998E-2</v>
+      </c>
+      <c r="L13" s="14">
+        <v>24.02</v>
+      </c>
+      <c r="M13" s="14">
+        <v>35.54</v>
+      </c>
+      <c r="N13" s="14">
+        <v>554.85</v>
+      </c>
+      <c r="O13" s="14">
+        <v>44.43</v>
+      </c>
+      <c r="P13" s="14">
+        <v>8.89</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>6.4053347999999996E-2</v>
+      </c>
+      <c r="R13" s="14">
+        <v>-11.52</v>
+      </c>
+      <c r="S13" s="14">
+        <v>127.47</v>
+      </c>
+      <c r="T13" s="14">
+        <v>3575</v>
+      </c>
+      <c r="U13" s="14">
+        <v>27</v>
+      </c>
+      <c r="V13" s="8"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="14">
+        <v>2024</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="14">
+        <v>34</v>
+      </c>
+      <c r="D14" s="14">
+        <v>123.07</v>
+      </c>
+      <c r="E14" s="14">
+        <v>31.87</v>
+      </c>
+      <c r="F14" s="14">
+        <v>956</v>
+      </c>
+      <c r="G14" s="14">
+        <v>167</v>
+      </c>
+      <c r="H14" s="14">
+        <v>789</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0.17</v>
+      </c>
+      <c r="J14" s="14">
+        <v>0.83</v>
+      </c>
+      <c r="K14" s="14">
+        <v>8.0552250000000006E-2</v>
+      </c>
+      <c r="L14" s="14">
+        <v>13.45</v>
+      </c>
+      <c r="M14" s="14">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="N14" s="14">
+        <v>586.73</v>
+      </c>
+      <c r="O14" s="14">
+        <v>47.12</v>
+      </c>
+      <c r="P14" s="14">
+        <v>9.42</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>6.4254427000000003E-2</v>
+      </c>
+      <c r="R14" s="14">
+        <v>-24.25</v>
+      </c>
+      <c r="S14" s="14">
+        <v>103.23</v>
+      </c>
+      <c r="T14" s="14">
+        <v>4071</v>
+      </c>
+      <c r="U14" s="14">
+        <v>31</v>
+      </c>
+      <c r="V14" s="8"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="14">
+        <v>27</v>
+      </c>
+      <c r="D15" s="14">
+        <v>209.62</v>
+      </c>
+      <c r="E15" s="14">
+        <v>38.85</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1321</v>
+      </c>
+      <c r="G15" s="14">
+        <v>242</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1079</v>
+      </c>
+      <c r="I15" s="14">
+        <v>0.18</v>
+      </c>
+      <c r="J15" s="14">
+        <v>0.82</v>
+      </c>
+      <c r="K15" s="14">
+        <v>8.1725790000000006E-2</v>
+      </c>
+      <c r="L15" s="14">
+        <v>19.78</v>
+      </c>
+      <c r="M15" s="14">
+        <v>27.94</v>
+      </c>
+      <c r="N15" s="14">
+        <v>436.67</v>
+      </c>
+      <c r="O15" s="14">
+        <v>34.93</v>
+      </c>
+      <c r="P15" s="14">
+        <v>6.99</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>6.3984243999999996E-2</v>
+      </c>
+      <c r="R15" s="14">
+        <v>-8.16</v>
+      </c>
+      <c r="S15" s="14">
+        <v>95.06</v>
+      </c>
+      <c r="T15" s="14">
+        <v>4441</v>
+      </c>
+      <c r="U15" s="14">
+        <v>33</v>
+      </c>
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="14">
+        <v>28</v>
+      </c>
+      <c r="D16" s="14">
+        <v>179.45</v>
+      </c>
+      <c r="E16" s="14">
+        <v>44.97</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1304</v>
+      </c>
+      <c r="G16" s="14">
+        <v>281</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1023</v>
+      </c>
+      <c r="I16" s="14">
+        <v>0.22</v>
+      </c>
+      <c r="J16" s="14">
+        <v>0.78</v>
+      </c>
+      <c r="K16" s="14">
+        <v>8.0322669999999999E-2</v>
+      </c>
+      <c r="L16" s="14">
+        <v>22.57</v>
+      </c>
+      <c r="M16" s="14">
+        <v>19.22</v>
+      </c>
+      <c r="N16" s="14">
+        <v>302</v>
+      </c>
+      <c r="O16" s="14">
+        <v>24.02</v>
+      </c>
+      <c r="P16" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>6.3642383999999996E-2</v>
+      </c>
+      <c r="R16" s="14">
+        <v>3.35</v>
+      </c>
+      <c r="S16" s="14">
+        <v>98.41</v>
+      </c>
+      <c r="T16" s="14">
+        <v>4696</v>
+      </c>
+      <c r="U16" s="14">
+        <v>35</v>
+      </c>
+      <c r="V16" s="8"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="14">
+        <v>45</v>
+      </c>
+      <c r="D17" s="14">
+        <v>89.02</v>
+      </c>
+      <c r="E17" s="14">
+        <v>23.34</v>
+      </c>
+      <c r="F17" s="14">
+        <v>677</v>
+      </c>
+      <c r="G17" s="14">
+        <v>365</v>
+      </c>
+      <c r="H17" s="14">
+        <v>312</v>
+      </c>
+      <c r="I17" s="14">
+        <v>0.54</v>
+      </c>
+      <c r="J17" s="14">
+        <v>0.46</v>
+      </c>
+      <c r="K17" s="14">
+        <v>8.0107499999999998E-2</v>
+      </c>
+      <c r="L17" s="14">
+        <v>29.24</v>
+      </c>
+      <c r="M17" s="14">
+        <v>10.76</v>
+      </c>
+      <c r="N17" s="14">
+        <v>167</v>
+      </c>
+      <c r="O17" s="14">
+        <v>13.45</v>
+      </c>
+      <c r="P17" s="14">
+        <v>2.69</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>6.4431137999999999E-2</v>
+      </c>
+      <c r="R17" s="14">
+        <v>18.48</v>
+      </c>
+      <c r="S17" s="14">
+        <v>116.89</v>
+      </c>
+      <c r="T17" s="14">
+        <v>4837</v>
+      </c>
+      <c r="U17" s="14">
+        <v>36</v>
+      </c>
+      <c r="V17" s="8"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A18" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="14">
+        <v>51</v>
+      </c>
+      <c r="D18" s="14">
+        <v>84.71</v>
+      </c>
+      <c r="E18" s="14">
+        <v>23.17</v>
+      </c>
+      <c r="F18" s="14">
+        <v>672</v>
+      </c>
+      <c r="G18" s="14">
+        <v>401</v>
+      </c>
+      <c r="H18" s="14">
+        <v>271</v>
+      </c>
+      <c r="I18" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="J18" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="K18" s="14">
+        <v>7.961232E-2</v>
+      </c>
+      <c r="L18" s="14">
+        <v>31.92</v>
+      </c>
+      <c r="M18" s="14">
+        <v>15.82</v>
+      </c>
+      <c r="N18" s="14">
+        <v>241.6</v>
+      </c>
+      <c r="O18" s="14">
+        <v>19.78</v>
+      </c>
+      <c r="P18" s="14">
+        <v>3.96</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>6.5480131999999996E-2</v>
+      </c>
+      <c r="R18" s="14">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S18" s="14">
+        <v>133</v>
+      </c>
+      <c r="T18" s="14">
+        <v>5042</v>
+      </c>
+      <c r="U18" s="14">
+        <v>38</v>
+      </c>
+      <c r="V18" s="8"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="14">
+        <v>63</v>
+      </c>
+      <c r="D19" s="14">
+        <v>22.25</v>
+      </c>
+      <c r="E19" s="14">
+        <v>10.81</v>
+      </c>
+      <c r="F19" s="14">
+        <v>335</v>
+      </c>
+      <c r="G19" s="14">
+        <v>335</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+      <c r="I19" s="14">
+        <v>1</v>
+      </c>
+      <c r="J19" s="14">
+        <v>0</v>
+      </c>
+      <c r="K19" s="14">
+        <v>7.9407649999999996E-2</v>
+      </c>
+      <c r="L19" s="14">
+        <v>26.6</v>
+      </c>
+      <c r="M19" s="14">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="N19" s="14">
+        <v>281.19</v>
+      </c>
+      <c r="O19" s="14">
+        <v>22.57</v>
+      </c>
+      <c r="P19" s="14">
+        <v>4.51</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>6.4227035000000002E-2</v>
+      </c>
+      <c r="R19" s="14">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="S19" s="14">
+        <v>141.54</v>
+      </c>
+      <c r="T19" s="14">
+        <v>5280</v>
+      </c>
+      <c r="U19" s="14">
+        <v>40</v>
+      </c>
+      <c r="V19" s="8"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="C20" s="14">
+        <v>68</v>
+      </c>
+      <c r="D20" s="14">
+        <v>46.51</v>
+      </c>
+      <c r="E20" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="F20" s="14">
+        <v>447</v>
+      </c>
+      <c r="G20" s="14">
+        <v>447</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0</v>
+      </c>
+      <c r="I20" s="14">
+        <v>1</v>
+      </c>
+      <c r="J20" s="14">
+        <v>0</v>
+      </c>
+      <c r="K20" s="14">
+        <v>0.1057558779</v>
+      </c>
+      <c r="L20" s="14">
+        <v>47.27</v>
+      </c>
+      <c r="M20" s="14">
+        <v>25.54</v>
+      </c>
+      <c r="N20" s="14">
+        <v>400.8</v>
+      </c>
+      <c r="O20" s="14">
+        <v>31.92</v>
+      </c>
+      <c r="P20" s="14">
+        <v>6.38</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>6.3722555E-2</v>
+      </c>
+      <c r="R20" s="14">
+        <v>21.73</v>
+      </c>
+      <c r="S20" s="14">
+        <v>163.27000000000001</v>
+      </c>
+      <c r="T20" s="14">
+        <v>5619</v>
+      </c>
+      <c r="U20" s="14">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2">
-        <v>175.77</v>
-      </c>
-      <c r="E2" s="2">
-        <v>40.56</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1298</v>
-      </c>
-      <c r="G2" s="2">
-        <v>180</v>
-      </c>
-      <c r="H2" s="2">
-        <f>MAX(F2-G2, 0)</f>
-        <v>1118</v>
-      </c>
-      <c r="I2" s="7">
-        <f>MIN(G2/F2, 1)</f>
-        <v>0.13867488443759629</v>
-      </c>
-      <c r="J2" s="7">
-        <f>H2/F2</f>
-        <v>0.86132511556240365</v>
-      </c>
-      <c r="K2" s="2">
-        <v>0.08</v>
-      </c>
-      <c r="L2" s="7">
-        <f>G2*K2</f>
-        <v>14.4</v>
-      </c>
-      <c r="M2" s="2">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="N2" s="2">
-        <v>79.88</v>
-      </c>
-      <c r="O2" s="2">
-        <v>6.08</v>
-      </c>
-      <c r="P2" s="2">
-        <v>1.22</v>
-      </c>
-      <c r="Q2" s="2">
-        <f>M2/N2</f>
-        <v>6.0841261892839268E-2</v>
-      </c>
-      <c r="R2" s="7">
-        <f>L2-M2</f>
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="S2" s="7">
-        <f>R2</f>
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="T2" s="8">
-        <f>N2*$U$21</f>
-        <v>67.578479999999999</v>
-      </c>
-      <c r="U2" s="4">
-        <f>T2/$U$22</f>
-        <v>0.50696534133533377</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="2">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2">
-        <v>121.41</v>
-      </c>
-      <c r="E3" s="2">
-        <v>38.65</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1198</v>
-      </c>
-      <c r="G3" s="2">
-        <v>303</v>
-      </c>
-      <c r="H3" s="2">
-        <f t="shared" ref="H3:H18" si="0">MAX(F3-G3, 0)</f>
-        <v>895</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" ref="I3:I18" si="1">MIN(G3/F3, 1)</f>
-        <v>0.25292153589315525</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:J18" si="2">H3/F3</f>
-        <v>0.74707846410684475</v>
-      </c>
-      <c r="K3" s="2">
-        <v>8.1959580000000004E-2</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" ref="L3:L18" si="3">G3*K3</f>
-        <v>24.833752740000001</v>
-      </c>
-      <c r="M3" s="2">
-        <v>18.78</v>
-      </c>
-      <c r="N3" s="2">
-        <v>307.33</v>
-      </c>
-      <c r="O3" s="2">
-        <v>23.47</v>
-      </c>
-      <c r="P3" s="2">
-        <v>4.6900000000000004</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q18" si="4">M3/N3</f>
-        <v>6.1106953437672869E-2</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" ref="R3:R18" si="5">L3-M3</f>
-        <v>6.0537527400000002</v>
-      </c>
-      <c r="S3" s="7">
-        <f>S2+R3</f>
-        <v>15.593752739999999</v>
-      </c>
-      <c r="T3" s="8">
-        <f>T2+N3*$U$21</f>
-        <v>327.57965999999999</v>
-      </c>
-      <c r="U3" s="4">
-        <f t="shared" ref="U3:U18" si="6">T3/$U$22</f>
-        <v>2.457461815453863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2">
-        <v>50.88</v>
-      </c>
-      <c r="E4" s="2">
-        <v>21.69</v>
-      </c>
-      <c r="F4" s="2">
-        <v>629</v>
-      </c>
-      <c r="G4" s="2">
-        <v>427</v>
-      </c>
-      <c r="H4" s="2">
-        <f t="shared" si="0"/>
-        <v>202</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="1"/>
-        <v>0.67885532591414943</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="2"/>
-        <v>0.32114467408585057</v>
-      </c>
-      <c r="K4" s="2">
-        <v>8.3406800000000003E-2</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="3"/>
-        <v>35.614703599999999</v>
-      </c>
-      <c r="M4" s="2">
-        <v>13.38</v>
-      </c>
-      <c r="N4" s="2">
-        <v>219.34</v>
-      </c>
-      <c r="O4" s="2">
-        <v>16.72</v>
-      </c>
-      <c r="P4" s="2">
-        <v>3.34</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" si="4"/>
-        <v>6.1001185374304732E-2</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="5"/>
-        <v>22.234703599999996</v>
-      </c>
-      <c r="S4" s="7">
-        <f>S3+R4</f>
-        <v>37.828456339999995</v>
-      </c>
-      <c r="T4" s="8">
-        <f t="shared" ref="T4:T18" si="7">T3+N4*$U$21</f>
-        <v>513.1413</v>
-      </c>
-      <c r="U4" s="4">
-        <f t="shared" si="6"/>
-        <v>3.849522130532633</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="V20" s="8"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="14">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="14">
+        <v>79</v>
+      </c>
+      <c r="D21" s="14">
+        <v>141.91</v>
+      </c>
+      <c r="E21" s="14">
+        <v>27.64</v>
+      </c>
+      <c r="F21" s="14">
+        <v>912</v>
+      </c>
+      <c r="G21" s="14">
+        <v>646</v>
+      </c>
+      <c r="H21" s="14">
+        <v>266</v>
+      </c>
+      <c r="I21" s="14">
+        <v>0.71</v>
+      </c>
+      <c r="J21" s="14">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K21" s="14">
+        <v>0.11971321</v>
+      </c>
+      <c r="L21" s="14">
+        <v>77.33</v>
+      </c>
+      <c r="M21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="V23" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="2">
-        <v>29.68</v>
-      </c>
-      <c r="E5" s="2">
-        <v>17.53</v>
-      </c>
-      <c r="F5" s="2">
-        <v>526</v>
-      </c>
-      <c r="G5" s="2">
-        <v>399</v>
-      </c>
-      <c r="H5" s="2">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="1"/>
-        <v>0.7585551330798479</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="2"/>
-        <v>0.2414448669201521</v>
-      </c>
-      <c r="K5" s="2">
-        <v>8.4231239999999999E-2</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="3"/>
-        <v>33.608264759999997</v>
-      </c>
-      <c r="M5" s="2">
-        <v>11.52</v>
-      </c>
-      <c r="N5" s="2">
-        <v>179.75</v>
-      </c>
-      <c r="O5" s="2">
-        <v>14.4</v>
-      </c>
-      <c r="P5" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" si="4"/>
-        <v>6.408901251738526E-2</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="5"/>
-        <v>22.088264759999998</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" ref="S5:S18" si="8">S4+R5</f>
-        <v>59.91672109999999</v>
-      </c>
-      <c r="T5" s="8">
-        <f t="shared" si="7"/>
-        <v>665.20979999999997</v>
-      </c>
-      <c r="U5" s="4">
-        <f t="shared" si="6"/>
-        <v>4.9903210802700668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="2">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2">
-        <v>13.21</v>
-      </c>
-      <c r="E6" s="2">
-        <v>9.69</v>
-      </c>
-      <c r="F6" s="2">
-        <v>281</v>
-      </c>
-      <c r="G6" s="2">
-        <v>502</v>
-      </c>
-      <c r="H6" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>8.4308519999999998E-2</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="3"/>
-        <v>42.322877040000002</v>
-      </c>
-      <c r="M6" s="2">
-        <v>19.86</v>
-      </c>
-      <c r="N6" s="2">
-        <v>302.91000000000003</v>
-      </c>
-      <c r="O6" s="2">
-        <v>24.83</v>
-      </c>
-      <c r="P6" s="2">
-        <v>4.97</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5564028919481029E-2</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="5"/>
-        <v>22.462877040000002</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="8"/>
-        <v>82.379598139999985</v>
-      </c>
-      <c r="T6" s="8">
-        <f t="shared" si="7"/>
-        <v>921.47165999999993</v>
-      </c>
-      <c r="U6" s="4">
-        <f t="shared" si="6"/>
-        <v>6.9127656414103518</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="2">
-        <v>72</v>
-      </c>
-      <c r="D7" s="2">
-        <v>54.46</v>
-      </c>
-      <c r="E7" s="2">
-        <v>20.190000000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>646</v>
-      </c>
-      <c r="G7" s="2">
-        <v>657</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>8.1547850000000005E-2</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="3"/>
-        <v>53.576937450000003</v>
-      </c>
-      <c r="M7" s="2">
-        <v>28.49</v>
-      </c>
-      <c r="N7" s="2">
-        <v>427.47</v>
-      </c>
-      <c r="O7" s="2">
-        <v>35.61</v>
-      </c>
-      <c r="P7" s="2">
-        <v>7.12</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="4"/>
-        <v>6.6647951903057515E-2</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="5"/>
-        <v>25.086937450000004</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="8"/>
-        <v>107.46653558999999</v>
-      </c>
-      <c r="T7" s="8">
-        <f t="shared" si="7"/>
-        <v>1283.1112800000001</v>
-      </c>
-      <c r="U7" s="4">
-        <f t="shared" si="6"/>
-        <v>9.6257410352588142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2">
-        <v>76</v>
-      </c>
-      <c r="D8" s="2">
-        <v>106.41</v>
-      </c>
-      <c r="E8" s="2">
-        <v>25.58</v>
-      </c>
-      <c r="F8" s="2">
-        <v>793</v>
-      </c>
-      <c r="G8" s="2">
-        <v>596</v>
-      </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" si="1"/>
-        <v>0.75157629255989911</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="2"/>
-        <v>0.24842370744010089</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8.0069260000000003E-2</v>
-      </c>
-      <c r="L8" s="7">
-        <f t="shared" si="3"/>
-        <v>47.721278959999999</v>
-      </c>
-      <c r="M8" s="2">
-        <v>26.89</v>
-      </c>
-      <c r="N8" s="2">
-        <v>399.33</v>
-      </c>
-      <c r="O8" s="2">
-        <v>33.61</v>
-      </c>
-      <c r="P8" s="2">
-        <v>6.72</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" si="4"/>
-        <v>6.733779079958932E-2</v>
-      </c>
-      <c r="R8" s="7">
-        <f t="shared" si="5"/>
-        <v>20.831278959999999</v>
-      </c>
-      <c r="S8" s="7">
-        <f t="shared" si="8"/>
-        <v>128.29781455</v>
-      </c>
-      <c r="T8" s="8">
-        <f t="shared" si="7"/>
-        <v>1620.9444600000002</v>
-      </c>
-      <c r="U8" s="4">
-        <f t="shared" si="6"/>
-        <v>12.160123480870217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="2">
-        <v>74</v>
-      </c>
-      <c r="D9" s="2">
-        <v>113</v>
-      </c>
-      <c r="E9" s="2">
-        <v>27.48</v>
-      </c>
-      <c r="F9" s="2">
-        <v>852</v>
-      </c>
-      <c r="G9" s="2">
-        <v>555</v>
-      </c>
-      <c r="H9" s="2">
-        <f t="shared" si="0"/>
-        <v>297</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="1"/>
-        <v>0.65140845070422537</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
-        <v>0.34859154929577463</v>
-      </c>
-      <c r="K9" s="2">
-        <v>8.0054749999999994E-2</v>
-      </c>
-      <c r="L9" s="7">
-        <f t="shared" si="3"/>
-        <v>44.430386249999998</v>
-      </c>
-      <c r="M9" s="2">
-        <v>33.86</v>
-      </c>
-      <c r="N9" s="2">
-        <v>501.84</v>
-      </c>
-      <c r="O9" s="2">
-        <v>42.32</v>
-      </c>
-      <c r="P9" s="2">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" si="4"/>
-        <v>6.7471704128806001E-2</v>
-      </c>
-      <c r="R9" s="7">
-        <f t="shared" si="5"/>
-        <v>10.570386249999999</v>
-      </c>
-      <c r="S9" s="7">
-        <f t="shared" si="8"/>
-        <v>138.86820080000001</v>
-      </c>
-      <c r="T9" s="8">
-        <f t="shared" si="7"/>
-        <v>2045.5011000000002</v>
-      </c>
-      <c r="U9" s="4">
-        <f t="shared" si="6"/>
-        <v>15.345094523630907</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2">
-        <v>86.83</v>
-      </c>
-      <c r="E10" s="2">
-        <v>25.27</v>
-      </c>
-      <c r="F10" s="2">
-        <v>758</v>
-      </c>
-      <c r="G10" s="2">
-        <v>587</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>171</v>
-      </c>
-      <c r="I10" s="7">
-        <f t="shared" si="1"/>
-        <v>0.77440633245382584</v>
-      </c>
-      <c r="J10" s="7">
-        <f t="shared" si="2"/>
-        <v>0.22559366754617413</v>
-      </c>
-      <c r="K10" s="2">
-        <v>8.0280909999999997E-2</v>
-      </c>
-      <c r="L10" s="7">
-        <f t="shared" si="3"/>
-        <v>47.124894169999997</v>
-      </c>
-      <c r="M10" s="2">
-        <v>42.86</v>
-      </c>
-      <c r="N10" s="2">
-        <v>656.71</v>
-      </c>
-      <c r="O10" s="2">
-        <v>53.57</v>
-      </c>
-      <c r="P10" s="2">
-        <v>10.71</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5264728723485252E-2</v>
-      </c>
-      <c r="R10" s="7">
-        <f t="shared" si="5"/>
-        <v>4.264894169999998</v>
-      </c>
-      <c r="S10" s="7">
-        <f t="shared" si="8"/>
-        <v>143.13309497</v>
-      </c>
-      <c r="T10" s="8">
-        <f t="shared" si="7"/>
-        <v>2601.0777600000001</v>
-      </c>
-      <c r="U10" s="4">
-        <f t="shared" si="6"/>
-        <v>19.51296144036009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2">
-        <v>63</v>
-      </c>
-      <c r="D11" s="2">
-        <v>52.22</v>
-      </c>
-      <c r="E11" s="2">
-        <v>15.97</v>
-      </c>
-      <c r="F11" s="2">
-        <v>463</v>
-      </c>
-      <c r="G11" s="2">
-        <v>437</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" si="1"/>
-        <v>0.94384449244060475</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="2"/>
-        <v>5.6155507559395246E-2</v>
-      </c>
-      <c r="K11" s="2">
-        <v>7.9938079999999995E-2</v>
-      </c>
-      <c r="L11" s="7">
-        <f t="shared" si="3"/>
-        <v>34.932940959999996</v>
-      </c>
-      <c r="M11" s="2">
-        <v>38.18</v>
-      </c>
-      <c r="N11" s="2">
-        <v>596.25</v>
-      </c>
-      <c r="O11" s="2">
-        <v>47.72</v>
-      </c>
-      <c r="P11" s="2">
-        <v>9.5399999999999991</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4033542976939209E-2</v>
-      </c>
-      <c r="R11" s="7">
-        <f t="shared" si="5"/>
-        <v>-3.2470590400000034</v>
-      </c>
-      <c r="S11" s="7">
-        <f t="shared" si="8"/>
-        <v>139.88603592999999</v>
-      </c>
-      <c r="T11" s="8">
-        <f t="shared" si="7"/>
-        <v>3105.5052599999999</v>
-      </c>
-      <c r="U11" s="4">
-        <f t="shared" si="6"/>
-        <v>23.297113728432105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="U24" s="14">
+        <v>133.30000000000001</v>
+      </c>
+      <c r="V24" s="8"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="2">
+      <c r="U25" s="14">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="V25" s="8"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="2">
-        <v>45.83</v>
-      </c>
-      <c r="E12" s="2">
-        <v>12.47</v>
-      </c>
-      <c r="F12" s="2">
-        <v>399</v>
-      </c>
-      <c r="G12" s="2">
-        <v>302</v>
-      </c>
-      <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>97</v>
-      </c>
-      <c r="I12" s="7">
-        <f t="shared" si="1"/>
-        <v>0.75689223057644106</v>
-      </c>
-      <c r="J12" s="7">
-        <f t="shared" si="2"/>
-        <v>0.24310776942355888</v>
-      </c>
-      <c r="K12" s="2">
-        <v>7.9552499999999998E-2</v>
-      </c>
-      <c r="L12" s="7">
-        <f t="shared" si="3"/>
-        <v>24.024854999999999</v>
-      </c>
-      <c r="M12" s="2">
-        <v>35.54</v>
-      </c>
-      <c r="N12" s="2">
-        <v>554.85</v>
-      </c>
-      <c r="O12" s="2">
-        <v>44.43</v>
-      </c>
-      <c r="P12" s="2">
-        <v>8.89</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" si="4"/>
-        <v>6.405334775164459E-2</v>
-      </c>
-      <c r="R12" s="7">
-        <f t="shared" si="5"/>
-        <v>-11.515145</v>
-      </c>
-      <c r="S12" s="7">
-        <f t="shared" si="8"/>
-        <v>128.37089093</v>
-      </c>
-      <c r="T12" s="8">
-        <f t="shared" si="7"/>
-        <v>3574.9083599999999</v>
-      </c>
-      <c r="U12" s="4">
-        <f t="shared" si="6"/>
-        <v>26.81851732933233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2024</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C13" s="2">
-        <v>34</v>
-      </c>
-      <c r="D13" s="2">
-        <v>123.07</v>
-      </c>
-      <c r="E13" s="2">
-        <v>31.87</v>
-      </c>
-      <c r="F13" s="2">
-        <v>956</v>
-      </c>
-      <c r="G13" s="2">
-        <v>167</v>
-      </c>
-      <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>789</v>
-      </c>
-      <c r="I13" s="7">
-        <f t="shared" si="1"/>
-        <v>0.17468619246861924</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>0.82531380753138073</v>
-      </c>
-      <c r="K13" s="2">
-        <v>8.0552250000000006E-2</v>
-      </c>
-      <c r="L13" s="7">
-        <f t="shared" si="3"/>
-        <v>13.45222575</v>
-      </c>
-      <c r="M13" s="2">
-        <v>37.700000000000003</v>
-      </c>
-      <c r="N13" s="2">
-        <v>586.73</v>
-      </c>
-      <c r="O13" s="2">
-        <v>47.12</v>
-      </c>
-      <c r="P13" s="2">
-        <v>9.42</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4254427078894893E-2</v>
-      </c>
-      <c r="R13" s="7">
-        <f t="shared" si="5"/>
-        <v>-24.247774250000003</v>
-      </c>
-      <c r="S13" s="7">
-        <f t="shared" si="8"/>
-        <v>104.12311668</v>
-      </c>
-      <c r="T13" s="8">
-        <f t="shared" si="7"/>
-        <v>4071.2819399999998</v>
-      </c>
-      <c r="U13" s="4">
-        <f t="shared" si="6"/>
-        <v>30.54225011252813</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="2">
-        <v>27</v>
-      </c>
-      <c r="D14" s="2">
-        <v>209.62</v>
-      </c>
-      <c r="E14" s="2">
-        <v>38.85</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1321</v>
-      </c>
-      <c r="G14" s="2">
-        <v>242</v>
-      </c>
-      <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>1079</v>
-      </c>
-      <c r="I14" s="7">
-        <f t="shared" si="1"/>
-        <v>0.18319454958364875</v>
-      </c>
-      <c r="J14" s="7">
-        <f t="shared" si="2"/>
-        <v>0.81680545041635122</v>
-      </c>
-      <c r="K14" s="2">
-        <v>8.1725790000000006E-2</v>
-      </c>
-      <c r="L14" s="7">
-        <f t="shared" si="3"/>
-        <v>19.77764118</v>
-      </c>
-      <c r="M14" s="2">
-        <v>27.94</v>
-      </c>
-      <c r="N14" s="2">
-        <v>436.67</v>
-      </c>
-      <c r="O14" s="2">
-        <v>34.93</v>
-      </c>
-      <c r="P14" s="2">
-        <v>6.99</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" si="4"/>
-        <v>6.398424439508095E-2</v>
-      </c>
-      <c r="R14" s="7">
-        <f t="shared" si="5"/>
-        <v>-8.1623588200000015</v>
-      </c>
-      <c r="S14" s="7">
-        <f t="shared" si="8"/>
-        <v>95.960757860000001</v>
-      </c>
-      <c r="T14" s="8">
-        <f t="shared" si="7"/>
-        <v>4440.7047599999996</v>
-      </c>
-      <c r="U14" s="4">
-        <f t="shared" si="6"/>
-        <v>33.313614103525879</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="2">
-        <v>28</v>
-      </c>
-      <c r="D15" s="2">
-        <v>179.45</v>
-      </c>
-      <c r="E15" s="2">
-        <v>44.97</v>
-      </c>
-      <c r="F15" s="2">
-        <v>1304</v>
-      </c>
-      <c r="G15" s="2">
-        <v>281</v>
-      </c>
-      <c r="H15" s="2">
-        <f t="shared" si="0"/>
-        <v>1023</v>
-      </c>
-      <c r="I15" s="7">
-        <f t="shared" si="1"/>
-        <v>0.21549079754601227</v>
-      </c>
-      <c r="J15" s="7">
-        <f t="shared" si="2"/>
-        <v>0.7845092024539877</v>
-      </c>
-      <c r="K15" s="2">
-        <v>8.0322669999999999E-2</v>
-      </c>
-      <c r="L15" s="7">
-        <f t="shared" si="3"/>
-        <v>22.570670270000001</v>
-      </c>
-      <c r="M15" s="2">
-        <v>19.22</v>
-      </c>
-      <c r="N15" s="2">
-        <v>302</v>
-      </c>
-      <c r="O15" s="2">
-        <v>24.02</v>
-      </c>
-      <c r="P15" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="Q15" s="2">
-        <f t="shared" si="4"/>
-        <v>6.3642384105960265E-2</v>
-      </c>
-      <c r="R15" s="7">
-        <f t="shared" si="5"/>
-        <v>3.3506702700000019</v>
-      </c>
-      <c r="S15" s="7">
-        <f t="shared" si="8"/>
-        <v>99.311428129999996</v>
-      </c>
-      <c r="T15" s="8">
-        <f t="shared" si="7"/>
-        <v>4696.1967599999998</v>
-      </c>
-      <c r="U15" s="4">
-        <f t="shared" si="6"/>
-        <v>35.230283270817701</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="2">
-        <v>45</v>
-      </c>
-      <c r="D16" s="2">
-        <v>89.02</v>
-      </c>
-      <c r="E16" s="2">
-        <v>23.34</v>
-      </c>
-      <c r="F16" s="2">
-        <v>677</v>
-      </c>
-      <c r="G16" s="2">
-        <v>365</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-      <c r="I16" s="7">
-        <f t="shared" si="1"/>
-        <v>0.53914327917282123</v>
-      </c>
-      <c r="J16" s="7">
-        <f t="shared" si="2"/>
-        <v>0.46085672082717871</v>
-      </c>
-      <c r="K16" s="2">
-        <v>8.0107499999999998E-2</v>
-      </c>
-      <c r="L16" s="7">
-        <f t="shared" si="3"/>
-        <v>29.239237499999998</v>
-      </c>
-      <c r="M16" s="2">
-        <v>10.76</v>
-      </c>
-      <c r="N16" s="2">
-        <v>167</v>
-      </c>
-      <c r="O16" s="2">
-        <v>13.45</v>
-      </c>
-      <c r="P16" s="2">
-        <v>2.69</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4431137724550891E-2</v>
-      </c>
-      <c r="R16" s="7">
-        <f t="shared" si="5"/>
-        <v>18.479237499999996</v>
-      </c>
-      <c r="S16" s="7">
-        <f t="shared" si="8"/>
-        <v>117.79066562999999</v>
-      </c>
-      <c r="T16" s="8">
-        <f t="shared" si="7"/>
-        <v>4837.47876</v>
-      </c>
-      <c r="U16" s="4">
-        <f t="shared" si="6"/>
-        <v>36.290163240810202</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="2">
-        <v>51</v>
-      </c>
-      <c r="D17" s="2">
-        <v>84.71</v>
-      </c>
-      <c r="E17" s="2">
-        <v>23.17</v>
-      </c>
-      <c r="F17" s="2">
-        <v>672</v>
-      </c>
-      <c r="G17" s="2">
-        <v>401</v>
-      </c>
-      <c r="H17" s="2">
-        <f t="shared" si="0"/>
-        <v>271</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="1"/>
-        <v>0.59672619047619047</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" si="2"/>
-        <v>0.40327380952380953</v>
-      </c>
-      <c r="K17" s="2">
-        <v>7.961232E-2</v>
-      </c>
-      <c r="L17" s="7">
-        <f t="shared" si="3"/>
-        <v>31.924540319999998</v>
-      </c>
-      <c r="M17" s="2">
-        <v>15.82</v>
-      </c>
-      <c r="N17" s="2">
-        <v>241.6</v>
-      </c>
-      <c r="O17" s="2">
-        <v>19.78</v>
-      </c>
-      <c r="P17" s="2">
-        <v>3.96</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" si="4"/>
-        <v>6.548013245033113E-2</v>
-      </c>
-      <c r="R17" s="7">
-        <f t="shared" si="5"/>
-        <v>16.104540319999998</v>
-      </c>
-      <c r="S17" s="7">
-        <f t="shared" si="8"/>
-        <v>133.89520594999999</v>
-      </c>
-      <c r="T17" s="8">
-        <f t="shared" si="7"/>
-        <v>5041.8723600000003</v>
-      </c>
-      <c r="U17" s="4">
-        <f t="shared" si="6"/>
-        <v>37.823498574643658</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2025</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" s="2">
-        <v>63</v>
-      </c>
-      <c r="D18" s="2">
-        <v>22.25</v>
-      </c>
-      <c r="E18" s="2">
-        <v>10.81</v>
-      </c>
-      <c r="F18" s="2">
-        <v>335</v>
-      </c>
-      <c r="G18" s="2">
-        <v>544</v>
-      </c>
-      <c r="H18" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>7.9407649999999996E-2</v>
-      </c>
-      <c r="L18" s="7">
-        <f t="shared" si="3"/>
-        <v>43.1977616</v>
-      </c>
-      <c r="M18" s="2">
-        <v>18.059999999999999</v>
-      </c>
-      <c r="N18" s="2">
-        <v>281.19</v>
-      </c>
-      <c r="O18" s="2">
-        <v>22.57</v>
-      </c>
-      <c r="P18" s="2">
-        <v>4.51</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" si="4"/>
-        <v>6.4227035100821506E-2</v>
-      </c>
-      <c r="R18" s="7">
-        <f t="shared" si="5"/>
-        <v>25.137761600000001</v>
-      </c>
-      <c r="S18" s="7">
-        <f t="shared" si="8"/>
-        <v>159.03296755</v>
-      </c>
-      <c r="T18" s="8">
-        <f t="shared" si="7"/>
-        <v>5279.7591000000002</v>
-      </c>
-      <c r="U18" s="4">
-        <f t="shared" si="6"/>
-        <v>39.608095273818456</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3" t="s">
+      <c r="U26" s="14">
+        <v>58.04</v>
+      </c>
+      <c r="V26" s="8"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="U21" s="2">
-        <v>0.84599999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="U22" s="2">
-        <v>133.30000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="U23" s="2">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="U24" s="2">
-        <v>58.04</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="U25" s="2">
+      <c r="U27" s="14">
         <v>952.24</v>
       </c>
+      <c r="V27" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3399,7 +3470,7 @@
   <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3408,59 +3479,51 @@
     <col min="2" max="2" width="21.33203125" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C1" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="40.200000000000003" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3474,35 +3537,29 @@
         <v>0</v>
       </c>
       <c r="D3" s="4">
-        <v>370.82067005710064</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <f t="shared" ref="F3:F14" si="0">$D$3*SIN($D$4*(A3-$D$5))+$D$6</f>
-        <v>163.19496144153473</v>
-      </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G14" si="1">(B3-F3)^2</f>
-        <v>282.40932095150447</v>
-      </c>
-      <c r="H3" s="3" t="s">
+        <v>391.494592901072</v>
+      </c>
+      <c r="E3" s="4">
+        <f>$D$3*SIN($D$4*(A3-$D$5))+$D$6</f>
+        <v>162.50698498150348</v>
+      </c>
+      <c r="F3" s="6">
+        <f>(B3-E3)^2</f>
+        <v>306.00557443734488</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="H3" s="4">
+        <v>37.059220847423802</v>
+      </c>
       <c r="I3" s="4">
-        <v>36.204226079281185</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="4">
-        <f t="shared" ref="K3:K14" si="2">$I$3*SIN($I$4*(A3-$I$5))+$I$6 + $I$7*SIN($I$8*(A3-$I$9)) + $I$10</f>
-        <v>175.96945611112133</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L14" si="3">(K3-B3)^2</f>
-        <v>16.245284040177179</v>
+        <f>$H$3*SIN($H$4*(A3-$H$5))+$H$6*SIN($H$7*(A3-$H$8)) + $H$9</f>
+        <v>176.28834612728477</v>
+      </c>
+      <c r="J3" s="4">
+        <f>(I3-B3)^2</f>
+        <v>13.776374470841978</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3516,35 +3573,29 @@
         <v>1</v>
       </c>
       <c r="D4" s="6">
-        <v>0.31137076981991252</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <f t="shared" si="0"/>
-        <v>278.09403873939505</v>
-      </c>
-      <c r="G4" s="6">
-        <f t="shared" si="1"/>
-        <v>620.30690631475477</v>
-      </c>
-      <c r="H4" s="3" t="s">
+        <v>0.299014607516421</v>
+      </c>
+      <c r="E4" s="4">
+        <f>$D$3*SIN($D$4*(A4-$D$5))+$D$6</f>
+        <v>279.10232992766203</v>
+      </c>
+      <c r="F4" s="6">
+        <f>(B4-E4)^2</f>
+        <v>571.098634886318</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="6">
-        <v>0.85450714768395197</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <f t="shared" si="2"/>
-        <v>296.03869422889102</v>
-      </c>
-      <c r="L4" s="4">
-        <f t="shared" si="3"/>
-        <v>48.459778038875221</v>
+      <c r="H4" s="6">
+        <v>0.85302847708351603</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:I14" si="0">$H$3*SIN($H$4*(A4-$H$5))+$H$6*SIN($H$7*(A4-$H$8)) + $H$9</f>
+        <v>296.95054418332165</v>
+      </c>
+      <c r="J4" s="4">
+        <f>(I4-B4)^2</f>
+        <v>36.595915677943481</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3558,31 +3609,29 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>1.6324462931217567</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="4">
+        <v>1.4220993230277901</v>
+      </c>
+      <c r="E5" s="4">
+        <f>$D$3*SIN($D$4*(A5-$D$5))+$D$6</f>
+        <v>389.7238233435217</v>
+      </c>
+      <c r="F5" s="6">
+        <f>(B5-E5)^2</f>
+        <v>1389.5133461249777</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>80.249238673695203</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>388.92064354059448</v>
-      </c>
-      <c r="G5" s="6">
-        <f t="shared" si="1"/>
-        <v>1450.0373883624686</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="4">
-        <v>6.5292270108695405</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="4">
-        <f t="shared" si="2"/>
-        <v>384.7658958153001</v>
-      </c>
-      <c r="L5" s="4">
-        <f t="shared" si="3"/>
-        <v>1783.7195562840857</v>
+        <v>385.12795008525995</v>
+      </c>
+      <c r="J5" s="4">
+        <f>(I5-B5)^2</f>
+        <v>1753.2685640624818</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3593,38 +3642,32 @@
         <v>399</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="4">
-        <v>235.74787041459103</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
+        <v>211.78794602661301</v>
+      </c>
+      <c r="E6" s="4">
+        <f>$D$3*SIN($D$4*(A6-$D$5))+$D$6</f>
+        <v>484.55430076245511</v>
+      </c>
+      <c r="F6" s="6">
+        <f>(B6-E6)^2</f>
+        <v>7319.5383789526277</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4">
+        <v>601.63371011494405</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>485.01647267849614</v>
-      </c>
-      <c r="G6" s="6">
-        <f t="shared" si="1"/>
-        <v>7398.8335720504738</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2.7154044643667428E-3</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="4">
-        <f t="shared" si="2"/>
-        <v>455.44756782882797</v>
-      </c>
-      <c r="L6" s="4">
-        <f t="shared" si="3"/>
-        <v>3186.3279137901345</v>
+        <v>454.19037855105194</v>
+      </c>
+      <c r="J6" s="4">
+        <f>(I6-B6)^2</f>
+        <v>3045.9778846084137</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -3634,30 +3677,27 @@
       <c r="B7" s="2">
         <v>502</v>
       </c>
-      <c r="F7" s="4">
+      <c r="E7" s="4">
+        <f>$D$3*SIN($D$4*(A7-$D$5))+$D$6</f>
+        <v>555.17798000214566</v>
+      </c>
+      <c r="F7" s="6">
+        <f>(B7-E7)^2</f>
+        <v>2827.8975571086035</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.23363494802245499</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>557.13989611455202</v>
-      </c>
-      <c r="G7" s="6">
-        <f t="shared" si="1"/>
-        <v>3040.4081435235885</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="4">
-        <v>603.50608389490969</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <f t="shared" si="2"/>
-        <v>520.3875234332445</v>
-      </c>
-      <c r="L7" s="4">
-        <f t="shared" si="3"/>
-        <v>338.10101800811549</v>
+        <v>517.30602121754282</v>
+      </c>
+      <c r="J7" s="4">
+        <f>(I7-B7)^2</f>
+        <v>234.274285511871</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -3665,32 +3705,29 @@
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>657</v>
-      </c>
-      <c r="F8" s="4">
+        <v>646</v>
+      </c>
+      <c r="E8" s="4">
+        <f>$D$3*SIN($D$4*(A8-$D$5))+$D$6</f>
+        <v>595.32732432153728</v>
+      </c>
+      <c r="F8" s="6">
+        <f>(B8-E8)^2</f>
+        <v>2567.7200604146678</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>598.35473355364127</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>3439.2672765644093</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.23370523190105114</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <f t="shared" si="2"/>
-        <v>579.13800606527059</v>
-      </c>
-      <c r="L8" s="4">
-        <f t="shared" si="3"/>
-        <v>6062.4900994918398</v>
+        <v>575.14206027770138</v>
+      </c>
+      <c r="J8" s="4">
+        <f>(I8-B8)^2</f>
+        <v>5020.8476216889048</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -3700,28 +3737,27 @@
       <c r="B9" s="2">
         <v>596</v>
       </c>
-      <c r="F9" s="4">
+      <c r="E9" s="4">
+        <f>$D$3*SIN($D$4*(A9-$D$5))+$D$6</f>
+        <v>601.43925837026416</v>
+      </c>
+      <c r="F9" s="6">
+        <f>(B9-E9)^2</f>
+        <v>29.58553161848868</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.2471794697231434E-3</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>604.69731369880924</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>75.643265575494851</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="4">
-        <f t="shared" si="2"/>
-        <v>616.40655041922741</v>
-      </c>
-      <c r="L9" s="4">
-        <f t="shared" si="3"/>
-        <v>416.4273000124706</v>
+        <v>613.02383768285358</v>
+      </c>
+      <c r="J9" s="4">
+        <f>(I9-B9)^2</f>
+        <v>289.8110494521456</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -3731,30 +3767,21 @@
       <c r="B10" s="2">
         <v>555</v>
       </c>
-      <c r="F10" s="4">
+      <c r="E10" s="4">
+        <f>$D$3*SIN($D$4*(A10-$D$5))+$D$6</f>
+        <v>572.97137524427217</v>
+      </c>
+      <c r="F10" s="6">
+        <f>(B10-E10)^2</f>
+        <v>322.97032817043851</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>575.55766440332127</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>422.61756571958244</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="4">
-        <v>3.1691162026992003E-3</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <f t="shared" si="2"/>
-        <v>611.19671297982586</v>
-      </c>
-      <c r="L10" s="4">
-        <f t="shared" si="3"/>
-        <v>3158.0705497369286</v>
+        <v>609.62692995841792</v>
+      </c>
+      <c r="J10" s="4">
+        <f>(I10-B10)^2</f>
+        <v>2984.1014766818971</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3764,21 +3791,21 @@
       <c r="B11" s="2">
         <v>587</v>
       </c>
-      <c r="F11" s="4">
+      <c r="E11" s="4">
+        <f>$D$3*SIN($D$4*(A11-$D$5))+$D$6</f>
+        <v>512.45007268087966</v>
+      </c>
+      <c r="F11" s="6">
+        <f>(B11-E11)^2</f>
+        <v>5557.6916632861257</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="0"/>
-        <v>513.73817428963787</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>5367.2951064154777</v>
-      </c>
-      <c r="K11" s="4">
-        <f t="shared" si="2"/>
-        <v>550.97871678970284</v>
-      </c>
-      <c r="L11" s="4">
-        <f t="shared" si="3"/>
-        <v>1297.5328441164359</v>
+        <v>551.32519493581231</v>
+      </c>
+      <c r="J11" s="4">
+        <f>(I11-B11)^2</f>
+        <v>1272.691716367792</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
@@ -3791,21 +3818,21 @@
       <c r="B12" s="2">
         <v>437</v>
       </c>
-      <c r="F12" s="4">
+      <c r="E12" s="4">
+        <f>$D$3*SIN($D$4*(A12-$D$5))+$D$6</f>
+        <v>425.24634652052202</v>
+      </c>
+      <c r="F12" s="6">
+        <f>(B12-E12)^2</f>
+        <v>138.14837011564472</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="0"/>
-        <v>425.18408428993791</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>139.61586406729202</v>
-      </c>
-      <c r="K12" s="4">
-        <f t="shared" si="2"/>
-        <v>441.17093631027751</v>
-      </c>
-      <c r="L12" s="4">
-        <f t="shared" si="3"/>
-        <v>17.39670970439138</v>
+        <v>442.38586640315089</v>
+      </c>
+      <c r="J12" s="4">
+        <f>(I12-B12)^2</f>
+        <v>29.007556912589454</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3818,21 +3845,21 @@
       <c r="B13" s="2">
         <v>302</v>
       </c>
-      <c r="F13" s="4">
+      <c r="E13" s="4">
+        <f>$D$3*SIN($D$4*(A13-$D$5))+$D$6</f>
+        <v>319.09913876609392</v>
+      </c>
+      <c r="F13" s="6">
+        <f>(B13-E13)^2</f>
+        <v>292.38054654213573</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="0"/>
-        <v>318.41172800079346</v>
-      </c>
-      <c r="G13" s="6">
-        <f t="shared" si="1"/>
-        <v>269.34481597202807</v>
-      </c>
-      <c r="K13" s="4">
-        <f t="shared" si="2"/>
-        <v>303.37253827233263</v>
-      </c>
-      <c r="L13" s="4">
-        <f t="shared" si="3"/>
-        <v>1.88386130901785</v>
+        <v>303.98513641382226</v>
+      </c>
+      <c r="J13" s="4">
+        <f>(I13-B13)^2</f>
+        <v>3.9407665814831057</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
@@ -3845,53 +3872,53 @@
       <c r="B14" s="2">
         <v>167</v>
       </c>
-      <c r="F14" s="4">
+      <c r="E14" s="4">
+        <f>$D$3*SIN($D$4*(A14-$D$5))+$D$6</f>
+        <v>203.42854097503877</v>
+      </c>
+      <c r="F14" s="6">
+        <f>(B14-E14)^2</f>
+        <v>1327.0385975700788</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="0"/>
-        <v>203.68950753726699</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>1346.1199633271713</v>
-      </c>
-      <c r="K14" s="4">
-        <f t="shared" si="2"/>
-        <v>163.45489138540211</v>
-      </c>
-      <c r="L14" s="4">
-        <f t="shared" si="3"/>
-        <v>12.567795089296196</v>
+        <v>162.61290239257218</v>
+      </c>
+      <c r="J14" s="4">
+        <f>(I14-B14)^2</f>
+        <v>19.246625417098894</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.3">
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="4">
-        <f>AVERAGE(G3:G14)</f>
-        <v>1987.6582657370202</v>
-      </c>
-      <c r="L15" s="4">
-        <f>AVERAGE(L3:L14)</f>
-        <v>1361.6018924684806</v>
+      <c r="F15" s="4">
+        <f>AVERAGE(F3:F14)</f>
+        <v>1887.4657157689537</v>
+      </c>
+      <c r="J15" s="4">
+        <f>AVERAGE(J3:J14)</f>
+        <v>1225.2949864527889</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="7">
-        <f>RSQ(B3:B14,F3:F14)</f>
-        <v>0.91762481630684667</v>
-      </c>
-      <c r="L16" s="7">
-        <f>RSQ(B3:B14,K3:K14)</f>
-        <v>0.94402269294954477</v>
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="7">
+        <f>RSQ(B3:B14,E3:E14)</f>
+        <v>0.92041072649938149</v>
+      </c>
+      <c r="J16" s="7">
+        <f>RSQ(B3:B14,I3:I14)</f>
+        <v>0.94876404175323936</v>
       </c>
     </row>
   </sheetData>
